--- a/02 系统测试/05 项目成果输出/缺陷报告.xlsx
+++ b/02 系统测试/05 项目成果输出/缺陷报告.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sc281\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sc281\Desktop\woniuboss2.5_git\woniuboss2.5_yang\02 系统测试\05 项目成果输出\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC40112-3B93-408D-90F0-9A992AE851CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332A1423-71FF-4BA0-8945-80F82F5D6326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="396" windowWidth="23256" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="woniuboss2.5_yang-未关闭Bug" sheetId="4" r:id="rId1"/>
@@ -3083,7 +3083,7 @@
   <dimension ref="A1:AH86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K94" sqref="K94"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3218,21 +3218,21 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>230</v>
+        <v>297</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -3245,19 +3245,19 @@
         <v>38</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="4">
-        <v>43967</v>
+      <c r="N2" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -3265,11 +3265,9 @@
       <c r="P2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="S2" s="4">
         <v>43966</v>
@@ -3298,43 +3296,39 @@
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG2" s="4">
-        <v>43966</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>232</v>
+        <v>159</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>39</v>
@@ -3343,7 +3337,7 @@
         <v>40</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>42</v>
@@ -3355,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>44</v>
@@ -3390,19 +3384,17 @@
       </c>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG3" s="4">
-        <v>43966</v>
+        <v>72</v>
+      </c>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="AH3" s="2"/>
     </row>
     <row r="4" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>297</v>
+        <v>195</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>34</v>
@@ -3414,32 +3406,32 @@
         <v>36</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>54</v>
+        <v>174</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>56</v>
+        <v>175</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>46</v>
+      <c r="N4" s="4">
+        <v>43967</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
@@ -3447,9 +3439,11 @@
       <c r="P4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="2"/>
+      <c r="Q4" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="R4" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="S4" s="4">
         <v>43966</v>
@@ -3478,7 +3472,7 @@
       </c>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2" t="s">
@@ -3486,21 +3480,21 @@
       </c>
       <c r="AH4" s="2"/>
     </row>
-    <row r="5" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>5</v>
+        <v>313</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>280</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>60</v>
+        <v>281</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -3510,22 +3504,22 @@
         <v>3</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>38</v>
+        <v>244</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>61</v>
+        <v>282</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N5" s="4">
-        <v>43967</v>
+        <v>43969</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
@@ -3537,7 +3531,7 @@
         <v>44</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="S5" s="4">
         <v>43966</v>
@@ -3566,31 +3560,29 @@
       </c>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG5" s="4">
-        <v>43966</v>
+        <v>283</v>
+      </c>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="AH5" s="2"/>
     </row>
-    <row r="6" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>9</v>
+        <v>322</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>280</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>63</v>
+        <v>287</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -3600,28 +3592,34 @@
         <v>3</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="L6" s="2" t="s">
-        <v>64</v>
+        <v>288</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="N6" s="4">
+        <v>43969</v>
       </c>
       <c r="O6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q6" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="R6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S6" s="4">
         <v>43966</v>
@@ -3630,22 +3628,16 @@
         <v>36</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="V6" s="4">
         <v>43966</v>
       </c>
-      <c r="W6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z6" s="4">
-        <v>43966</v>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2" t="s">
@@ -3656,31 +3648,29 @@
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG6" s="4">
-        <v>43966</v>
+        <v>289</v>
+      </c>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="AH6" s="2"/>
     </row>
     <row r="7" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>14</v>
+        <v>328</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>280</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -3690,22 +3680,22 @@
         <v>3</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>71</v>
+        <v>294</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N7" s="4">
-        <v>43967</v>
+        <v>43969</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
@@ -3717,7 +3707,7 @@
         <v>44</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="S7" s="4">
         <v>43966</v>
@@ -3746,19 +3736,17 @@
       </c>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG7" s="4">
-        <v>43966</v>
+        <v>295</v>
+      </c>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="AH7" s="2"/>
     </row>
     <row r="8" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>34</v>
@@ -3770,7 +3758,7 @@
         <v>36</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -3780,7 +3768,7 @@
         <v>3</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>39</v>
@@ -3789,7 +3777,7 @@
         <v>40</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>42</v>
@@ -3836,7 +3824,7 @@
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AF8" s="2" t="s">
         <v>44</v>
@@ -3848,7 +3836,7 @@
     </row>
     <row r="9" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>34</v>
@@ -3860,7 +3848,7 @@
         <v>36</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -3872,32 +3860,26 @@
       <c r="I9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="4">
-        <v>43967</v>
+        <v>65</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="O9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" s="2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="S9" s="4">
         <v>43966</v>
@@ -3906,16 +3888,22 @@
         <v>36</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="V9" s="4">
         <v>43966</v>
       </c>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2" t="s">
-        <v>46</v>
+      <c r="W9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>43966</v>
       </c>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2" t="s">
@@ -3926,10 +3914,10 @@
       </c>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="AG9" s="4">
         <v>43966</v>
@@ -3938,19 +3926,19 @@
     </row>
     <row r="10" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -3960,7 +3948,7 @@
         <v>3</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>39</v>
@@ -3969,7 +3957,7 @@
         <v>40</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>42</v>
@@ -4016,7 +4004,7 @@
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="AF10" s="2" t="s">
         <v>44</v>
@@ -4024,13 +4012,11 @@
       <c r="AG10" s="4">
         <v>43966</v>
       </c>
-      <c r="AH10" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="AH10" s="2"/>
     </row>
     <row r="11" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>34</v>
@@ -4042,7 +4028,7 @@
         <v>36</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -4061,7 +4047,7 @@
         <v>40</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>42</v>
@@ -4108,17 +4094,19 @@
       </c>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG11" s="4">
+        <v>43966</v>
       </c>
       <c r="AH11" s="2"/>
     </row>
     <row r="12" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>34</v>
@@ -4130,7 +4118,7 @@
         <v>36</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -4149,7 +4137,7 @@
         <v>40</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>42</v>
@@ -4196,29 +4184,31 @@
       </c>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="2" t="s">
-        <v>46</v>
+        <v>78</v>
+      </c>
+      <c r="AF12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG12" s="4">
+        <v>43966</v>
       </c>
       <c r="AH12" s="2"/>
     </row>
     <row r="13" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -4228,7 +4218,7 @@
         <v>3</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>39</v>
@@ -4237,7 +4227,7 @@
         <v>40</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>42</v>
@@ -4252,7 +4242,7 @@
         <v>43</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>44</v>
@@ -4284,31 +4274,29 @@
       </c>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG13" s="4">
-        <v>43966</v>
+        <v>87</v>
+      </c>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="AH13" s="2"/>
     </row>
     <row r="14" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -4318,7 +4306,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>39</v>
@@ -4327,7 +4315,7 @@
         <v>40</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>42</v>
@@ -4374,7 +4362,7 @@
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2" t="s">
@@ -4384,19 +4372,19 @@
     </row>
     <row r="15" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -4406,7 +4394,7 @@
         <v>3</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>39</v>
@@ -4415,7 +4403,7 @@
         <v>40</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>42</v>
@@ -4429,9 +4417,7 @@
       <c r="P15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q15" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" s="2" t="s">
         <v>44</v>
       </c>
@@ -4462,7 +4448,7 @@
       </c>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2" t="s">
@@ -4472,19 +4458,19 @@
     </row>
     <row r="16" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -4503,7 +4489,7 @@
         <v>40</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>42</v>
@@ -4550,7 +4536,7 @@
       </c>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2" t="s">
@@ -4560,19 +4546,19 @@
     </row>
     <row r="17" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>135</v>
+        <v>329</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>102</v>
+        <v>296</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>103</v>
+        <v>297</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -4582,7 +4568,7 @@
         <v>3</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>39</v>
@@ -4591,7 +4577,7 @@
         <v>105</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>106</v>
+        <v>298</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>42</v>
@@ -4638,7 +4624,7 @@
       </c>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2" t="s">
-        <v>107</v>
+        <v>299</v>
       </c>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2" t="s">
@@ -4734,19 +4720,19 @@
     </row>
     <row r="19" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>140</v>
+        <v>274</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>112</v>
+        <v>240</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -4759,19 +4745,19 @@
         <v>38</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>40</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>113</v>
+        <v>241</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N19" s="4">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
@@ -4779,11 +4765,9 @@
       <c r="P19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q19" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="S19" s="4">
         <v>43966</v>
@@ -4812,7 +4796,7 @@
       </c>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2" t="s">
-        <v>47</v>
+        <v>242</v>
       </c>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2" t="s">
@@ -4822,19 +4806,19 @@
     </row>
     <row r="20" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>142</v>
+        <v>277</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
@@ -4847,19 +4831,19 @@
         <v>38</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>116</v>
+        <v>247</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>46</v>
+      <c r="N20" s="4">
+        <v>43966</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
@@ -4869,7 +4853,7 @@
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="2" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="S20" s="4">
         <v>43966</v>
@@ -4877,11 +4861,9 @@
       <c r="T20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V20" s="4">
-        <v>43966</v>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -4898,7 +4880,7 @@
       </c>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2" t="s">
@@ -4906,21 +4888,21 @@
       </c>
       <c r="AH20" s="2"/>
     </row>
-    <row r="21" spans="1:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>145</v>
+        <v>330</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>119</v>
+        <v>300</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
@@ -4933,19 +4915,19 @@
         <v>38</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>120</v>
+        <v>301</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N21" s="2" t="s">
-        <v>46</v>
+      <c r="N21" s="4">
+        <v>43966</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
@@ -4955,7 +4937,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="2" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="S21" s="4">
         <v>43966</v>
@@ -4963,11 +4945,9 @@
       <c r="T21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V21" s="4">
-        <v>43966</v>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -4984,7 +4964,7 @@
       </c>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2" t="s">
-        <v>121</v>
+        <v>302</v>
       </c>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2" t="s">
@@ -4992,9 +4972,9 @@
       </c>
       <c r="AH21" s="2"/>
     </row>
-    <row r="22" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>146</v>
+        <v>230</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>34</v>
@@ -5006,26 +4986,26 @@
         <v>36</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>40</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>42</v>
@@ -5072,36 +5052,40 @@
       </c>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH22" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="AF22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG22" s="4">
+        <v>43966</v>
+      </c>
+      <c r="AH22" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="23" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>149</v>
+        <v>232</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>38</v>
@@ -5110,26 +5094,28 @@
         <v>39</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N23" s="4">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="O23" s="2">
         <v>0</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q23" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="R23" s="2" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="S23" s="4">
         <v>43966</v>
@@ -5158,29 +5144,31 @@
       </c>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AF23" s="2"/>
-      <c r="AG23" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="AF23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG23" s="4">
+        <v>43966</v>
       </c>
       <c r="AH23" s="2"/>
     </row>
     <row r="24" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
@@ -5196,16 +5184,16 @@
         <v>39</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N24" s="4">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="O24" s="2">
         <v>0</v>
@@ -5213,9 +5201,11 @@
       <c r="P24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q24" s="2"/>
+      <c r="Q24" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="R24" s="2" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="S24" s="4">
         <v>43966</v>
@@ -5244,7 +5234,7 @@
       </c>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2" t="s">
@@ -5254,7 +5244,7 @@
     </row>
     <row r="25" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>34</v>
@@ -5266,7 +5256,7 @@
         <v>36</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
@@ -5279,13 +5269,13 @@
         <v>38</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>40</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>42</v>
@@ -5332,7 +5322,7 @@
       </c>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2" t="s">
@@ -5342,19 +5332,19 @@
     </row>
     <row r="26" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2">
@@ -5370,16 +5360,16 @@
         <v>39</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N26" s="4">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="O26" s="2">
         <v>0</v>
@@ -5387,9 +5377,11 @@
       <c r="P26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q26" s="2"/>
+      <c r="Q26" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="R26" s="2" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="S26" s="4">
         <v>43966</v>
@@ -5418,7 +5410,7 @@
       </c>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AF26" s="2"/>
       <c r="AG26" s="2" t="s">
@@ -5426,21 +5418,21 @@
       </c>
       <c r="AH26" s="2"/>
     </row>
-    <row r="27" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>154</v>
+        <v>249</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>136</v>
+        <v>224</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2">
@@ -5452,20 +5444,16 @@
       <c r="I27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
       <c r="L27" s="2" t="s">
-        <v>137</v>
+        <v>225</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N27" s="4">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="O27" s="2">
         <v>0</v>
@@ -5473,9 +5461,11 @@
       <c r="P27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q27" s="2"/>
+      <c r="Q27" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="R27" s="2" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="S27" s="4">
         <v>43966</v>
@@ -5504,29 +5494,31 @@
       </c>
       <c r="AD27" s="2"/>
       <c r="AE27" s="2" t="s">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AH27" s="2"/>
+      <c r="AH27" s="2" t="s">
+        <v>226</v>
+      </c>
     </row>
-    <row r="28" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>157</v>
+        <v>257</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>139</v>
+        <v>227</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2">
@@ -5542,16 +5534,16 @@
         <v>39</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>140</v>
+        <v>228</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N28" s="4">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="O28" s="2">
         <v>0</v>
@@ -5559,9 +5551,11 @@
       <c r="P28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q28" s="2"/>
+      <c r="Q28" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="R28" s="2" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="S28" s="4">
         <v>43966</v>
@@ -5590,29 +5584,31 @@
       </c>
       <c r="AD28" s="2"/>
       <c r="AE28" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="AF28" s="2"/>
       <c r="AG28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AH28" s="2"/>
+      <c r="AH28" s="2" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="29" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2">
@@ -5628,16 +5624,16 @@
         <v>39</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N29" s="4">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="O29" s="2">
         <v>0</v>
@@ -5645,9 +5641,11 @@
       <c r="P29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q29" s="2"/>
+      <c r="Q29" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="R29" s="2" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="S29" s="4">
         <v>43966</v>
@@ -5676,29 +5674,31 @@
       </c>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF29" s="2"/>
-      <c r="AG29" s="2" t="s">
-        <v>46</v>
+        <v>92</v>
+      </c>
+      <c r="AF29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG29" s="4">
+        <v>43966</v>
       </c>
       <c r="AH29" s="2"/>
     </row>
     <row r="30" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2">
@@ -5717,7 +5717,7 @@
         <v>40</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>42</v>
@@ -5764,7 +5764,7 @@
       </c>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="AF30" s="2"/>
       <c r="AG30" s="2" t="s">
@@ -5774,19 +5774,19 @@
     </row>
     <row r="31" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2">
@@ -5796,7 +5796,7 @@
         <v>3</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>39</v>
@@ -5805,7 +5805,7 @@
         <v>40</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>42</v>
@@ -5819,7 +5819,9 @@
       <c r="P31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q31" s="2"/>
+      <c r="Q31" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="R31" s="2" t="s">
         <v>44</v>
       </c>
@@ -5850,7 +5852,7 @@
       </c>
       <c r="AD31" s="2"/>
       <c r="AE31" s="2" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AF31" s="2"/>
       <c r="AG31" s="2" t="s">
@@ -5858,21 +5860,21 @@
       </c>
       <c r="AH31" s="2"/>
     </row>
-    <row r="32" spans="1:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2">
@@ -5882,22 +5884,22 @@
         <v>3</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>39</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N32" s="4">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="O32" s="2">
         <v>0</v>
@@ -5905,9 +5907,11 @@
       <c r="P32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q32" s="2"/>
+      <c r="Q32" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="R32" s="2" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="S32" s="4">
         <v>43966</v>
@@ -5936,7 +5940,7 @@
       </c>
       <c r="AD32" s="2"/>
       <c r="AE32" s="2" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="AF32" s="2"/>
       <c r="AG32" s="2" t="s">
@@ -5944,21 +5948,21 @@
       </c>
       <c r="AH32" s="2"/>
     </row>
-    <row r="33" spans="1:34" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2">
@@ -5974,16 +5978,16 @@
         <v>39</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N33" s="4">
-        <v>43966</v>
+      <c r="N33" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="O33" s="2">
         <v>0</v>
@@ -5991,9 +5995,11 @@
       <c r="P33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q33" s="2"/>
+      <c r="Q33" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="R33" s="2" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="S33" s="4">
         <v>43966</v>
@@ -6022,7 +6028,7 @@
       </c>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2" t="s">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="AF33" s="2"/>
       <c r="AG33" s="2" t="s">
@@ -6030,21 +6036,21 @@
       </c>
       <c r="AH33" s="2"/>
     </row>
-    <row r="34" spans="1:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2">
@@ -6054,22 +6060,22 @@
         <v>3</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>39</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N34" s="4">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="O34" s="2">
         <v>0</v>
@@ -6077,9 +6083,11 @@
       <c r="P34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q34" s="2"/>
+      <c r="Q34" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="R34" s="2" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="S34" s="4">
         <v>43966</v>
@@ -6108,7 +6116,7 @@
       </c>
       <c r="AD34" s="2"/>
       <c r="AE34" s="2" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="AF34" s="2"/>
       <c r="AG34" s="2" t="s">
@@ -6118,19 +6126,19 @@
     </row>
     <row r="35" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>169</v>
+        <v>228</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2">
@@ -6149,7 +6157,7 @@
         <v>40</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>42</v>
@@ -6196,7 +6204,7 @@
       </c>
       <c r="AD35" s="2"/>
       <c r="AE35" s="2" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AF35" s="2"/>
       <c r="AG35" s="2" t="s">
@@ -6204,21 +6212,21 @@
       </c>
       <c r="AH35" s="2"/>
     </row>
-    <row r="36" spans="1:34" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>170</v>
+        <v>22</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2">
@@ -6228,22 +6236,22 @@
         <v>3</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>39</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N36" s="4">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="O36" s="2">
         <v>0</v>
@@ -6251,9 +6259,11 @@
       <c r="P36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q36" s="2"/>
+      <c r="Q36" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="R36" s="2" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="S36" s="4">
         <v>43966</v>
@@ -6282,29 +6292,33 @@
       </c>
       <c r="AD36" s="2"/>
       <c r="AE36" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF36" s="2"/>
-      <c r="AG36" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH36" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AF36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG36" s="4">
+        <v>43966</v>
+      </c>
+      <c r="AH36" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="37" spans="1:34" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2">
@@ -6320,16 +6334,16 @@
         <v>39</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N37" s="4">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="O37" s="2">
         <v>0</v>
@@ -6337,9 +6351,11 @@
       <c r="P37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q37" s="2"/>
+      <c r="Q37" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="R37" s="2" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="S37" s="4">
         <v>43966</v>
@@ -6368,29 +6384,33 @@
       </c>
       <c r="AD37" s="2"/>
       <c r="AE37" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF37" s="2"/>
-      <c r="AG37" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH37" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="AF37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG37" s="4">
+        <v>43966</v>
+      </c>
+      <c r="AH37" s="2" t="s">
+        <v>181</v>
+      </c>
     </row>
-    <row r="38" spans="1:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>162</v>
+        <v>103</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2">
@@ -6400,7 +6420,7 @@
         <v>3</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>39</v>
@@ -6409,13 +6429,13 @@
         <v>105</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N38" s="4">
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="O38" s="2">
         <v>0</v>
@@ -6423,9 +6443,11 @@
       <c r="P38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q38" s="2"/>
+      <c r="Q38" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="R38" s="2" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="S38" s="4">
         <v>43966</v>
@@ -6454,7 +6476,7 @@
       </c>
       <c r="AD38" s="2"/>
       <c r="AE38" s="2" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="AF38" s="2"/>
       <c r="AG38" s="2" t="s">
@@ -6462,21 +6484,21 @@
       </c>
       <c r="AH38" s="2"/>
     </row>
-    <row r="39" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>165</v>
+        <v>230</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2">
@@ -6488,20 +6510,16 @@
       <c r="I39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
       <c r="L39" s="2" t="s">
-        <v>166</v>
+        <v>231</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N39" s="4">
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="O39" s="2">
         <v>0</v>
@@ -6509,9 +6527,11 @@
       <c r="P39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q39" s="2"/>
+      <c r="Q39" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="R39" s="2" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="S39" s="4">
         <v>43966</v>
@@ -6540,29 +6560,31 @@
       </c>
       <c r="AD39" s="2"/>
       <c r="AE39" s="2" t="s">
-        <v>167</v>
+        <v>232</v>
       </c>
       <c r="AF39" s="2"/>
       <c r="AG39" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AH39" s="2"/>
+      <c r="AH39" s="2" t="s">
+        <v>233</v>
+      </c>
     </row>
-    <row r="40" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>190</v>
+        <v>270</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>168</v>
+        <v>234</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2">
@@ -6572,7 +6594,7 @@
         <v>3</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>39</v>
@@ -6581,13 +6603,13 @@
         <v>105</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N40" s="4">
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="O40" s="2">
         <v>0</v>
@@ -6595,9 +6617,11 @@
       <c r="P40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q40" s="2"/>
+      <c r="Q40" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="R40" s="2" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="S40" s="4">
         <v>43966</v>
@@ -6626,7 +6650,7 @@
       </c>
       <c r="AD40" s="2"/>
       <c r="AE40" s="2" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="AF40" s="2"/>
       <c r="AG40" s="2" t="s">
@@ -6634,21 +6658,21 @@
       </c>
       <c r="AH40" s="2"/>
     </row>
-    <row r="41" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>192</v>
+        <v>273</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2">
@@ -6658,7 +6682,7 @@
         <v>3</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>39</v>
@@ -6667,13 +6691,13 @@
         <v>105</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N41" s="4">
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="O41" s="2">
         <v>0</v>
@@ -6681,9 +6705,11 @@
       <c r="P41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q41" s="2"/>
+      <c r="Q41" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="R41" s="2" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="S41" s="4">
         <v>43966</v>
@@ -6712,7 +6738,7 @@
       </c>
       <c r="AD41" s="2"/>
       <c r="AE41" s="2" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="AF41" s="2"/>
       <c r="AG41" s="2" t="s">
@@ -6720,21 +6746,21 @@
       </c>
       <c r="AH41" s="2"/>
     </row>
-    <row r="42" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>195</v>
+        <v>276</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>174</v>
+        <v>243</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2">
@@ -6744,22 +6770,22 @@
         <v>3</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>38</v>
+        <v>244</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>39</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>175</v>
+        <v>245</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N42" s="4">
-        <v>43967</v>
+        <v>43969</v>
       </c>
       <c r="O42" s="2">
         <v>0</v>
@@ -6767,11 +6793,9 @@
       <c r="P42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q42" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="Q42" s="2"/>
       <c r="R42" s="2" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="S42" s="4">
         <v>43966</v>
@@ -6800,29 +6824,31 @@
       </c>
       <c r="AD42" s="2"/>
       <c r="AE42" s="2" t="s">
-        <v>83</v>
+        <v>246</v>
       </c>
       <c r="AF42" s="2"/>
       <c r="AG42" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AH42" s="2"/>
+      <c r="AH42" s="2" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="43" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>197</v>
+        <v>279</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>176</v>
+        <v>248</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2">
@@ -6832,7 +6858,7 @@
         <v>3</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>39</v>
@@ -6841,13 +6867,13 @@
         <v>105</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>177</v>
+        <v>249</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N43" s="4">
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="O43" s="2">
         <v>0</v>
@@ -6855,9 +6881,11 @@
       <c r="P43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q43" s="2"/>
+      <c r="Q43" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="R43" s="2" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="S43" s="4">
         <v>43966</v>
@@ -6886,7 +6914,7 @@
       </c>
       <c r="AD43" s="2"/>
       <c r="AE43" s="2" t="s">
-        <v>178</v>
+        <v>250</v>
       </c>
       <c r="AF43" s="2"/>
       <c r="AG43" s="2" t="s">
@@ -6896,19 +6924,19 @@
     </row>
     <row r="44" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>198</v>
+        <v>284</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>179</v>
+        <v>251</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2">
@@ -6918,22 +6946,22 @@
         <v>3</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>39</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>180</v>
+        <v>252</v>
       </c>
       <c r="M44" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N44" s="4">
-        <v>43967</v>
+        <v>43969</v>
       </c>
       <c r="O44" s="2">
         <v>0</v>
@@ -6945,7 +6973,7 @@
         <v>44</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="S44" s="4">
         <v>43966</v>
@@ -6974,33 +7002,29 @@
       </c>
       <c r="AD44" s="2"/>
       <c r="AE44" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF44" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG44" s="4">
-        <v>43966</v>
-      </c>
-      <c r="AH44" s="2" t="s">
-        <v>181</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH44" s="2"/>
     </row>
     <row r="45" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>202</v>
+        <v>289</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>182</v>
+        <v>254</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2">
@@ -7010,7 +7034,7 @@
         <v>3</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>39</v>
@@ -7019,13 +7043,13 @@
         <v>105</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>183</v>
+        <v>255</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N45" s="4">
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="O45" s="2">
         <v>0</v>
@@ -7033,9 +7057,11 @@
       <c r="P45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q45" s="2"/>
+      <c r="Q45" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="R45" s="2" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="S45" s="4">
         <v>43966</v>
@@ -7064,7 +7090,7 @@
       </c>
       <c r="AD45" s="2"/>
       <c r="AE45" s="2" t="s">
-        <v>184</v>
+        <v>256</v>
       </c>
       <c r="AF45" s="2"/>
       <c r="AG45" s="2" t="s">
@@ -7072,21 +7098,21 @@
       </c>
       <c r="AH45" s="2"/>
     </row>
-    <row r="46" spans="1:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>203</v>
+        <v>291</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2">
@@ -7096,7 +7122,7 @@
         <v>3</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>39</v>
@@ -7105,13 +7131,13 @@
         <v>105</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>186</v>
+        <v>258</v>
       </c>
       <c r="M46" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N46" s="4">
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="O46" s="2">
         <v>0</v>
@@ -7119,9 +7145,11 @@
       <c r="P46" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q46" s="2"/>
+      <c r="Q46" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="R46" s="2" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="S46" s="4">
         <v>43966</v>
@@ -7150,7 +7178,7 @@
       </c>
       <c r="AD46" s="2"/>
       <c r="AE46" s="2" t="s">
-        <v>187</v>
+        <v>259</v>
       </c>
       <c r="AF46" s="2"/>
       <c r="AG46" s="2" t="s">
@@ -7160,19 +7188,19 @@
     </row>
     <row r="47" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>205</v>
+        <v>294</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>188</v>
+        <v>260</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2">
@@ -7182,7 +7210,7 @@
         <v>3</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>38</v>
+        <v>244</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>39</v>
@@ -7191,13 +7219,13 @@
         <v>105</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>189</v>
+        <v>261</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N47" s="4">
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="O47" s="2">
         <v>0</v>
@@ -7205,9 +7233,11 @@
       <c r="P47" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q47" s="2"/>
+      <c r="Q47" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="R47" s="2" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="S47" s="4">
         <v>43966</v>
@@ -7236,7 +7266,7 @@
       </c>
       <c r="AD47" s="2"/>
       <c r="AE47" s="2" t="s">
-        <v>190</v>
+        <v>262</v>
       </c>
       <c r="AF47" s="2"/>
       <c r="AG47" s="2" t="s">
@@ -7246,19 +7276,19 @@
     </row>
     <row r="48" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>207</v>
+        <v>295</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>191</v>
+        <v>263</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2">
@@ -7268,7 +7298,7 @@
         <v>3</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>38</v>
+        <v>244</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>39</v>
@@ -7277,13 +7307,13 @@
         <v>105</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>192</v>
+        <v>264</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N48" s="4">
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="O48" s="2">
         <v>0</v>
@@ -7291,9 +7321,11 @@
       <c r="P48" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q48" s="2"/>
+      <c r="Q48" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="R48" s="2" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="S48" s="4">
         <v>43966</v>
@@ -7322,7 +7354,7 @@
       </c>
       <c r="AD48" s="2"/>
       <c r="AE48" s="2" t="s">
-        <v>193</v>
+        <v>265</v>
       </c>
       <c r="AF48" s="2"/>
       <c r="AG48" s="2" t="s">
@@ -7332,19 +7364,19 @@
     </row>
     <row r="49" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>211</v>
+        <v>296</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>194</v>
+        <v>266</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2">
@@ -7354,7 +7386,7 @@
         <v>3</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>38</v>
+        <v>244</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>39</v>
@@ -7363,13 +7395,13 @@
         <v>105</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>195</v>
+        <v>267</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N49" s="4">
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="O49" s="2">
         <v>0</v>
@@ -7377,9 +7409,11 @@
       <c r="P49" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q49" s="2"/>
+      <c r="Q49" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="R49" s="2" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="S49" s="4">
         <v>43966</v>
@@ -7408,7 +7442,7 @@
       </c>
       <c r="AD49" s="2"/>
       <c r="AE49" s="2" t="s">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c r="AF49" s="2"/>
       <c r="AG49" s="2" t="s">
@@ -7418,19 +7452,19 @@
     </row>
     <row r="50" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>213</v>
+        <v>299</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>197</v>
+        <v>273</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2">
@@ -7440,7 +7474,7 @@
         <v>3</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>38</v>
+        <v>244</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>39</v>
@@ -7449,13 +7483,13 @@
         <v>105</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>198</v>
+        <v>274</v>
       </c>
       <c r="M50" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N50" s="4">
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="O50" s="2">
         <v>0</v>
@@ -7463,9 +7497,11 @@
       <c r="P50" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q50" s="2"/>
+      <c r="Q50" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="R50" s="2" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="S50" s="4">
         <v>43966</v>
@@ -7494,7 +7530,7 @@
       </c>
       <c r="AD50" s="2"/>
       <c r="AE50" s="2" t="s">
-        <v>199</v>
+        <v>275</v>
       </c>
       <c r="AF50" s="2"/>
       <c r="AG50" s="2" t="s">
@@ -7504,19 +7540,19 @@
     </row>
     <row r="51" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>214</v>
+        <v>303</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2">
@@ -7526,7 +7562,7 @@
         <v>3</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>38</v>
+        <v>244</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>39</v>
@@ -7535,13 +7571,13 @@
         <v>105</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>201</v>
+        <v>277</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N51" s="4">
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="O51" s="2">
         <v>0</v>
@@ -7549,9 +7585,11 @@
       <c r="P51" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q51" s="2"/>
+      <c r="Q51" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="R51" s="2" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="S51" s="4">
         <v>43966</v>
@@ -7580,7 +7618,7 @@
       </c>
       <c r="AD51" s="2"/>
       <c r="AE51" s="2" t="s">
-        <v>202</v>
+        <v>278</v>
       </c>
       <c r="AF51" s="2"/>
       <c r="AG51" s="2" t="s">
@@ -7590,19 +7628,19 @@
     </row>
     <row r="52" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>114</v>
+        <v>269</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>203</v>
+        <v>270</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2">
@@ -7615,13 +7653,13 @@
         <v>38</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>204</v>
+        <v>271</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>42</v>
@@ -7637,7 +7675,7 @@
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="2" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="S52" s="4">
         <v>43966</v>
@@ -7666,7 +7704,7 @@
       </c>
       <c r="AD52" s="2"/>
       <c r="AE52" s="2" t="s">
-        <v>205</v>
+        <v>272</v>
       </c>
       <c r="AF52" s="2"/>
       <c r="AG52" s="2" t="s">
@@ -7676,19 +7714,19 @@
     </row>
     <row r="53" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>219</v>
+        <v>304</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>89</v>
+        <v>269</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2">
@@ -7701,19 +7739,19 @@
         <v>38</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>40</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>206</v>
+        <v>279</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N53" s="2" t="s">
-        <v>46</v>
+      <c r="N53" s="4">
+        <v>43966</v>
       </c>
       <c r="O53" s="2">
         <v>0</v>
@@ -7721,11 +7759,9 @@
       <c r="P53" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q53" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="Q53" s="2"/>
       <c r="R53" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="S53" s="4">
         <v>43966</v>
@@ -7733,11 +7769,9 @@
       <c r="T53" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U53" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V53" s="4">
-        <v>43966</v>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="W53" s="2"/>
       <c r="X53" s="2"/>
@@ -7754,7 +7788,7 @@
       </c>
       <c r="AD53" s="2"/>
       <c r="AE53" s="2" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="AF53" s="2"/>
       <c r="AG53" s="2" t="s">
@@ -7764,19 +7798,19 @@
     </row>
     <row r="54" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>220</v>
+        <v>316</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>114</v>
+        <v>269</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2">
@@ -7788,20 +7822,16 @@
       <c r="I54" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
       <c r="L54" s="2" t="s">
-        <v>208</v>
+        <v>285</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N54" s="4">
-        <v>43966</v>
+      <c r="N54" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="O54" s="2">
         <v>0</v>
@@ -7811,7 +7841,7 @@
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="2" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="S54" s="4">
         <v>43966</v>
@@ -7840,7 +7870,7 @@
       </c>
       <c r="AD54" s="2"/>
       <c r="AE54" s="2" t="s">
-        <v>209</v>
+        <v>286</v>
       </c>
       <c r="AF54" s="2"/>
       <c r="AG54" s="2" t="s">
@@ -7850,19 +7880,19 @@
     </row>
     <row r="55" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>222</v>
+        <v>327</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>89</v>
+        <v>269</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>93</v>
+        <v>290</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2">
@@ -7872,22 +7902,18 @@
         <v>3</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
       <c r="L55" s="2" t="s">
-        <v>210</v>
+        <v>291</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N55" s="4">
-        <v>43967</v>
+      <c r="N55" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="O55" s="2">
         <v>0</v>
@@ -7895,11 +7921,9 @@
       <c r="P55" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q55" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="Q55" s="2"/>
       <c r="R55" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="S55" s="4">
         <v>43966</v>
@@ -7928,7 +7952,7 @@
       </c>
       <c r="AD55" s="2"/>
       <c r="AE55" s="2" t="s">
-        <v>95</v>
+        <v>292</v>
       </c>
       <c r="AF55" s="2"/>
       <c r="AG55" s="2" t="s">
@@ -7938,7 +7962,7 @@
     </row>
     <row r="56" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>223</v>
+        <v>142</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>34</v>
@@ -7950,7 +7974,7 @@
         <v>36</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2">
@@ -7969,13 +7993,13 @@
         <v>105</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>212</v>
+        <v>116</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N56" s="4">
-        <v>43966</v>
+      <c r="N56" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="O56" s="2">
         <v>0</v>
@@ -8014,7 +8038,7 @@
       </c>
       <c r="AD56" s="2"/>
       <c r="AE56" s="2" t="s">
-        <v>213</v>
+        <v>118</v>
       </c>
       <c r="AF56" s="2"/>
       <c r="AG56" s="2" t="s">
@@ -8022,9 +8046,9 @@
       </c>
       <c r="AH56" s="2"/>
     </row>
-    <row r="57" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>224</v>
+        <v>145</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>34</v>
@@ -8036,7 +8060,7 @@
         <v>36</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2">
@@ -8055,13 +8079,13 @@
         <v>105</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>215</v>
+        <v>120</v>
       </c>
       <c r="M57" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N57" s="4">
-        <v>43966</v>
+      <c r="N57" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="O57" s="2">
         <v>0</v>
@@ -8100,7 +8124,7 @@
       </c>
       <c r="AD57" s="2"/>
       <c r="AE57" s="2" t="s">
-        <v>216</v>
+        <v>121</v>
       </c>
       <c r="AF57" s="2"/>
       <c r="AG57" s="2" t="s">
@@ -8110,19 +8134,19 @@
     </row>
     <row r="58" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2">
@@ -8132,22 +8156,22 @@
         <v>3</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>39</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>217</v>
+        <v>125</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N58" s="4">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="O58" s="2">
         <v>0</v>
@@ -8155,11 +8179,9 @@
       <c r="P58" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q58" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="Q58" s="2"/>
       <c r="R58" s="2" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="S58" s="4">
         <v>43966</v>
@@ -8188,7 +8210,7 @@
       </c>
       <c r="AD58" s="2"/>
       <c r="AE58" s="2" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AF58" s="2"/>
       <c r="AG58" s="2" t="s">
@@ -8198,7 +8220,7 @@
     </row>
     <row r="59" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>34</v>
@@ -8210,7 +8232,7 @@
         <v>36</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>218</v>
+        <v>127</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2">
@@ -8229,7 +8251,7 @@
         <v>105</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>219</v>
+        <v>128</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>42</v>
@@ -8274,7 +8296,7 @@
       </c>
       <c r="AD59" s="2"/>
       <c r="AE59" s="2" t="s">
-        <v>220</v>
+        <v>129</v>
       </c>
       <c r="AF59" s="2"/>
       <c r="AG59" s="2" t="s">
@@ -8284,7 +8306,7 @@
     </row>
     <row r="60" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>233</v>
+        <v>153</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>34</v>
@@ -8296,7 +8318,7 @@
         <v>36</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>221</v>
+        <v>133</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2">
@@ -8315,7 +8337,7 @@
         <v>105</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>222</v>
+        <v>134</v>
       </c>
       <c r="M60" s="2" t="s">
         <v>42</v>
@@ -8360,7 +8382,7 @@
       </c>
       <c r="AD60" s="2"/>
       <c r="AE60" s="2" t="s">
-        <v>223</v>
+        <v>135</v>
       </c>
       <c r="AF60" s="2"/>
       <c r="AG60" s="2" t="s">
@@ -8368,21 +8390,21 @@
       </c>
       <c r="AH60" s="2"/>
     </row>
-    <row r="61" spans="1:34" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>249</v>
+        <v>154</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>224</v>
+        <v>136</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2">
@@ -8394,16 +8416,20 @@
       <c r="I61" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
+      <c r="J61" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="L61" s="2" t="s">
-        <v>225</v>
+        <v>137</v>
       </c>
       <c r="M61" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N61" s="4">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="O61" s="2">
         <v>0</v>
@@ -8411,11 +8437,9 @@
       <c r="P61" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q61" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="Q61" s="2"/>
       <c r="R61" s="2" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="S61" s="4">
         <v>43966</v>
@@ -8444,31 +8468,29 @@
       </c>
       <c r="AD61" s="2"/>
       <c r="AE61" s="2" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="AF61" s="2"/>
       <c r="AG61" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AH61" s="2" t="s">
-        <v>226</v>
-      </c>
+      <c r="AH61" s="2"/>
     </row>
-    <row r="62" spans="1:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>257</v>
+        <v>157</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>227</v>
+        <v>139</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2">
@@ -8484,16 +8506,16 @@
         <v>39</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>228</v>
+        <v>140</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N62" s="4">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="O62" s="2">
         <v>0</v>
@@ -8501,11 +8523,9 @@
       <c r="P62" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q62" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="Q62" s="2"/>
       <c r="R62" s="2" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="S62" s="4">
         <v>43966</v>
@@ -8534,31 +8554,29 @@
       </c>
       <c r="AD62" s="2"/>
       <c r="AE62" s="2" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="AF62" s="2"/>
       <c r="AG62" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AH62" s="2" t="s">
-        <v>229</v>
-      </c>
+      <c r="AH62" s="2"/>
     </row>
-    <row r="63" spans="1:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>265</v>
+        <v>158</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>230</v>
+        <v>142</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2">
@@ -8570,16 +8588,20 @@
       <c r="I63" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
+      <c r="J63" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="L63" s="2" t="s">
-        <v>231</v>
+        <v>143</v>
       </c>
       <c r="M63" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N63" s="4">
-        <v>43969</v>
+        <v>43966</v>
       </c>
       <c r="O63" s="2">
         <v>0</v>
@@ -8587,11 +8609,9 @@
       <c r="P63" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q63" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="Q63" s="2"/>
       <c r="R63" s="2" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="S63" s="4">
         <v>43966</v>
@@ -8620,31 +8640,29 @@
       </c>
       <c r="AD63" s="2"/>
       <c r="AE63" s="2" t="s">
-        <v>232</v>
+        <v>144</v>
       </c>
       <c r="AF63" s="2"/>
       <c r="AG63" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AH63" s="2" t="s">
-        <v>233</v>
-      </c>
+      <c r="AH63" s="2"/>
     </row>
     <row r="64" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>270</v>
+        <v>161</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>234</v>
+        <v>146</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2">
@@ -8654,7 +8672,7 @@
         <v>3</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>39</v>
@@ -8663,13 +8681,13 @@
         <v>105</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>235</v>
+        <v>147</v>
       </c>
       <c r="M64" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N64" s="4">
-        <v>43969</v>
+        <v>43966</v>
       </c>
       <c r="O64" s="2">
         <v>0</v>
@@ -8677,11 +8695,9 @@
       <c r="P64" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q64" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="Q64" s="2"/>
       <c r="R64" s="2" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="S64" s="4">
         <v>43966</v>
@@ -8710,7 +8726,7 @@
       </c>
       <c r="AD64" s="2"/>
       <c r="AE64" s="2" t="s">
-        <v>236</v>
+        <v>148</v>
       </c>
       <c r="AF64" s="2"/>
       <c r="AG64" s="2" t="s">
@@ -8718,21 +8734,21 @@
       </c>
       <c r="AH64" s="2"/>
     </row>
-    <row r="65" spans="1:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>273</v>
+        <v>165</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>237</v>
+        <v>149</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2">
@@ -8742,7 +8758,7 @@
         <v>3</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>39</v>
@@ -8751,13 +8767,13 @@
         <v>105</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>238</v>
+        <v>150</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N65" s="4">
-        <v>43969</v>
+        <v>43966</v>
       </c>
       <c r="O65" s="2">
         <v>0</v>
@@ -8765,11 +8781,9 @@
       <c r="P65" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q65" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="Q65" s="2"/>
       <c r="R65" s="2" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="S65" s="4">
         <v>43966</v>
@@ -8798,7 +8812,7 @@
       </c>
       <c r="AD65" s="2"/>
       <c r="AE65" s="2" t="s">
-        <v>239</v>
+        <v>151</v>
       </c>
       <c r="AF65" s="2"/>
       <c r="AG65" s="2" t="s">
@@ -8806,21 +8820,21 @@
       </c>
       <c r="AH65" s="2"/>
     </row>
-    <row r="66" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>274</v>
+        <v>167</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>240</v>
+        <v>152</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2">
@@ -8833,13 +8847,13 @@
         <v>38</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>241</v>
+        <v>153</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>42</v>
@@ -8855,7 +8869,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="2" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="S66" s="4">
         <v>43966</v>
@@ -8884,7 +8898,7 @@
       </c>
       <c r="AD66" s="2"/>
       <c r="AE66" s="2" t="s">
-        <v>242</v>
+        <v>154</v>
       </c>
       <c r="AF66" s="2"/>
       <c r="AG66" s="2" t="s">
@@ -8892,21 +8906,21 @@
       </c>
       <c r="AH66" s="2"/>
     </row>
-    <row r="67" spans="1:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>276</v>
+        <v>170</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>243</v>
+        <v>156</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2">
@@ -8916,7 +8930,7 @@
         <v>3</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>244</v>
+        <v>38</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>39</v>
@@ -8925,13 +8939,13 @@
         <v>105</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>245</v>
+        <v>157</v>
       </c>
       <c r="M67" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N67" s="4">
-        <v>43969</v>
+        <v>43966</v>
       </c>
       <c r="O67" s="2">
         <v>0</v>
@@ -8941,7 +8955,7 @@
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="2" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="S67" s="4">
         <v>43966</v>
@@ -8970,31 +8984,29 @@
       </c>
       <c r="AD67" s="2"/>
       <c r="AE67" s="2" t="s">
-        <v>246</v>
+        <v>158</v>
       </c>
       <c r="AF67" s="2"/>
       <c r="AG67" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AH67" s="2" t="s">
-        <v>233</v>
-      </c>
+      <c r="AH67" s="2"/>
     </row>
-    <row r="68" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>277</v>
+        <v>172</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2">
@@ -9007,13 +9019,13 @@
         <v>38</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>247</v>
+        <v>160</v>
       </c>
       <c r="M68" s="2" t="s">
         <v>42</v>
@@ -9029,7 +9041,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="2" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="S68" s="4">
         <v>43966</v>
@@ -9037,9 +9049,11 @@
       <c r="T68" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U68" s="2"/>
-      <c r="V68" s="2" t="s">
-        <v>46</v>
+      <c r="U68" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V68" s="4">
+        <v>43966</v>
       </c>
       <c r="W68" s="2"/>
       <c r="X68" s="2"/>
@@ -9056,7 +9070,7 @@
       </c>
       <c r="AD68" s="2"/>
       <c r="AE68" s="2" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="AF68" s="2"/>
       <c r="AG68" s="2" t="s">
@@ -9064,21 +9078,21 @@
       </c>
       <c r="AH68" s="2"/>
     </row>
-    <row r="69" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>279</v>
+        <v>175</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>248</v>
+        <v>162</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2">
@@ -9088,7 +9102,7 @@
         <v>3</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>39</v>
@@ -9097,13 +9111,13 @@
         <v>105</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>249</v>
+        <v>163</v>
       </c>
       <c r="M69" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N69" s="4">
-        <v>43969</v>
+        <v>43966</v>
       </c>
       <c r="O69" s="2">
         <v>0</v>
@@ -9111,11 +9125,9 @@
       <c r="P69" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q69" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="Q69" s="2"/>
       <c r="R69" s="2" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="S69" s="4">
         <v>43966</v>
@@ -9144,7 +9156,7 @@
       </c>
       <c r="AD69" s="2"/>
       <c r="AE69" s="2" t="s">
-        <v>250</v>
+        <v>164</v>
       </c>
       <c r="AF69" s="2"/>
       <c r="AG69" s="2" t="s">
@@ -9154,19 +9166,19 @@
     </row>
     <row r="70" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>284</v>
+        <v>186</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>251</v>
+        <v>165</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2">
@@ -9176,7 +9188,7 @@
         <v>3</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>39</v>
@@ -9185,13 +9197,13 @@
         <v>105</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>252</v>
+        <v>166</v>
       </c>
       <c r="M70" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N70" s="4">
-        <v>43969</v>
+        <v>43966</v>
       </c>
       <c r="O70" s="2">
         <v>0</v>
@@ -9199,11 +9211,9 @@
       <c r="P70" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q70" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="Q70" s="2"/>
       <c r="R70" s="2" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="S70" s="4">
         <v>43966</v>
@@ -9232,7 +9242,7 @@
       </c>
       <c r="AD70" s="2"/>
       <c r="AE70" s="2" t="s">
-        <v>253</v>
+        <v>167</v>
       </c>
       <c r="AF70" s="2"/>
       <c r="AG70" s="2" t="s">
@@ -9242,19 +9252,19 @@
     </row>
     <row r="71" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>289</v>
+        <v>190</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>254</v>
+        <v>168</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2">
@@ -9264,7 +9274,7 @@
         <v>3</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>39</v>
@@ -9273,13 +9283,13 @@
         <v>105</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>255</v>
+        <v>169</v>
       </c>
       <c r="M71" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N71" s="4">
-        <v>43969</v>
+        <v>43966</v>
       </c>
       <c r="O71" s="2">
         <v>0</v>
@@ -9287,11 +9297,9 @@
       <c r="P71" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q71" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="Q71" s="2"/>
       <c r="R71" s="2" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="S71" s="4">
         <v>43966</v>
@@ -9320,7 +9328,7 @@
       </c>
       <c r="AD71" s="2"/>
       <c r="AE71" s="2" t="s">
-        <v>256</v>
+        <v>170</v>
       </c>
       <c r="AF71" s="2"/>
       <c r="AG71" s="2" t="s">
@@ -9330,19 +9338,19 @@
     </row>
     <row r="72" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>291</v>
+        <v>192</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>257</v>
+        <v>171</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2">
@@ -9352,7 +9360,7 @@
         <v>3</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>39</v>
@@ -9361,13 +9369,13 @@
         <v>105</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>258</v>
+        <v>172</v>
       </c>
       <c r="M72" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N72" s="4">
-        <v>43969</v>
+        <v>43966</v>
       </c>
       <c r="O72" s="2">
         <v>0</v>
@@ -9375,11 +9383,9 @@
       <c r="P72" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q72" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="Q72" s="2"/>
       <c r="R72" s="2" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="S72" s="4">
         <v>43966</v>
@@ -9408,7 +9414,7 @@
       </c>
       <c r="AD72" s="2"/>
       <c r="AE72" s="2" t="s">
-        <v>259</v>
+        <v>173</v>
       </c>
       <c r="AF72" s="2"/>
       <c r="AG72" s="2" t="s">
@@ -9418,19 +9424,19 @@
     </row>
     <row r="73" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>294</v>
+        <v>197</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>260</v>
+        <v>176</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2">
@@ -9440,7 +9446,7 @@
         <v>3</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>244</v>
+        <v>38</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>39</v>
@@ -9449,13 +9455,13 @@
         <v>105</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>261</v>
+        <v>177</v>
       </c>
       <c r="M73" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N73" s="4">
-        <v>43969</v>
+        <v>43966</v>
       </c>
       <c r="O73" s="2">
         <v>0</v>
@@ -9463,11 +9469,9 @@
       <c r="P73" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q73" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="Q73" s="2"/>
       <c r="R73" s="2" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="S73" s="4">
         <v>43966</v>
@@ -9496,7 +9500,7 @@
       </c>
       <c r="AD73" s="2"/>
       <c r="AE73" s="2" t="s">
-        <v>262</v>
+        <v>178</v>
       </c>
       <c r="AF73" s="2"/>
       <c r="AG73" s="2" t="s">
@@ -9504,21 +9508,21 @@
       </c>
       <c r="AH73" s="2"/>
     </row>
-    <row r="74" spans="1:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>295</v>
+        <v>202</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>263</v>
+        <v>182</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2">
@@ -9528,7 +9532,7 @@
         <v>3</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>244</v>
+        <v>38</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>39</v>
@@ -9537,13 +9541,13 @@
         <v>105</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>264</v>
+        <v>183</v>
       </c>
       <c r="M74" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N74" s="4">
-        <v>43969</v>
+        <v>43966</v>
       </c>
       <c r="O74" s="2">
         <v>0</v>
@@ -9551,11 +9555,9 @@
       <c r="P74" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q74" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="Q74" s="2"/>
       <c r="R74" s="2" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="S74" s="4">
         <v>43966</v>
@@ -9584,7 +9586,7 @@
       </c>
       <c r="AD74" s="2"/>
       <c r="AE74" s="2" t="s">
-        <v>265</v>
+        <v>184</v>
       </c>
       <c r="AF74" s="2"/>
       <c r="AG74" s="2" t="s">
@@ -9592,21 +9594,21 @@
       </c>
       <c r="AH74" s="2"/>
     </row>
-    <row r="75" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>296</v>
+        <v>203</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>266</v>
+        <v>185</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2">
@@ -9616,7 +9618,7 @@
         <v>3</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>244</v>
+        <v>38</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>39</v>
@@ -9625,13 +9627,13 @@
         <v>105</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>267</v>
+        <v>186</v>
       </c>
       <c r="M75" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N75" s="4">
-        <v>43969</v>
+        <v>43966</v>
       </c>
       <c r="O75" s="2">
         <v>0</v>
@@ -9639,11 +9641,9 @@
       <c r="P75" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q75" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="Q75" s="2"/>
       <c r="R75" s="2" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="S75" s="4">
         <v>43966</v>
@@ -9672,7 +9672,7 @@
       </c>
       <c r="AD75" s="2"/>
       <c r="AE75" s="2" t="s">
-        <v>268</v>
+        <v>187</v>
       </c>
       <c r="AF75" s="2"/>
       <c r="AG75" s="2" t="s">
@@ -9682,19 +9682,19 @@
     </row>
     <row r="76" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>298</v>
+        <v>205</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>269</v>
+        <v>114</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>270</v>
+        <v>188</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2">
@@ -9707,13 +9707,13 @@
         <v>38</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>271</v>
+        <v>189</v>
       </c>
       <c r="M76" s="2" t="s">
         <v>42</v>
@@ -9729,7 +9729,7 @@
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" s="2" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="S76" s="4">
         <v>43966</v>
@@ -9758,7 +9758,7 @@
       </c>
       <c r="AD76" s="2"/>
       <c r="AE76" s="2" t="s">
-        <v>272</v>
+        <v>190</v>
       </c>
       <c r="AF76" s="2"/>
       <c r="AG76" s="2" t="s">
@@ -9766,21 +9766,21 @@
       </c>
       <c r="AH76" s="2"/>
     </row>
-    <row r="77" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>299</v>
+        <v>207</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>273</v>
+        <v>191</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2">
@@ -9790,7 +9790,7 @@
         <v>3</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>244</v>
+        <v>38</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>39</v>
@@ -9799,13 +9799,13 @@
         <v>105</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c r="M77" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N77" s="4">
-        <v>43969</v>
+        <v>43966</v>
       </c>
       <c r="O77" s="2">
         <v>0</v>
@@ -9813,11 +9813,9 @@
       <c r="P77" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q77" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="Q77" s="2"/>
       <c r="R77" s="2" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="S77" s="4">
         <v>43966</v>
@@ -9846,7 +9844,7 @@
       </c>
       <c r="AD77" s="2"/>
       <c r="AE77" s="2" t="s">
-        <v>275</v>
+        <v>193</v>
       </c>
       <c r="AF77" s="2"/>
       <c r="AG77" s="2" t="s">
@@ -9856,19 +9854,19 @@
     </row>
     <row r="78" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>303</v>
+        <v>211</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>276</v>
+        <v>194</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2">
@@ -9878,7 +9876,7 @@
         <v>3</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>244</v>
+        <v>38</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>39</v>
@@ -9887,13 +9885,13 @@
         <v>105</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>277</v>
+        <v>195</v>
       </c>
       <c r="M78" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N78" s="4">
-        <v>43969</v>
+        <v>43966</v>
       </c>
       <c r="O78" s="2">
         <v>0</v>
@@ -9901,11 +9899,9 @@
       <c r="P78" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q78" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="Q78" s="2"/>
       <c r="R78" s="2" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="S78" s="4">
         <v>43966</v>
@@ -9934,7 +9930,7 @@
       </c>
       <c r="AD78" s="2"/>
       <c r="AE78" s="2" t="s">
-        <v>278</v>
+        <v>196</v>
       </c>
       <c r="AF78" s="2"/>
       <c r="AG78" s="2" t="s">
@@ -9944,19 +9940,19 @@
     </row>
     <row r="79" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>304</v>
+        <v>213</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>269</v>
+        <v>114</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>54</v>
+        <v>197</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2">
@@ -9969,13 +9965,13 @@
         <v>38</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>279</v>
+        <v>198</v>
       </c>
       <c r="M79" s="2" t="s">
         <v>42</v>
@@ -9991,7 +9987,7 @@
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" s="2" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="S79" s="4">
         <v>43966</v>
@@ -9999,9 +9995,11 @@
       <c r="T79" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U79" s="2"/>
-      <c r="V79" s="2" t="s">
-        <v>46</v>
+      <c r="U79" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V79" s="4">
+        <v>43966</v>
       </c>
       <c r="W79" s="2"/>
       <c r="X79" s="2"/>
@@ -10018,7 +10016,7 @@
       </c>
       <c r="AD79" s="2"/>
       <c r="AE79" s="2" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="AF79" s="2"/>
       <c r="AG79" s="2" t="s">
@@ -10026,21 +10024,21 @@
       </c>
       <c r="AH79" s="2"/>
     </row>
-    <row r="80" spans="1:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>313</v>
+        <v>214</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>280</v>
+        <v>114</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>281</v>
+        <v>200</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2">
@@ -10050,7 +10048,7 @@
         <v>3</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>244</v>
+        <v>38</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>39</v>
@@ -10059,13 +10057,13 @@
         <v>105</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>282</v>
+        <v>201</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N80" s="4">
-        <v>43969</v>
+        <v>43966</v>
       </c>
       <c r="O80" s="2">
         <v>0</v>
@@ -10073,11 +10071,9 @@
       <c r="P80" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="Q80" s="2"/>
       <c r="R80" s="2" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="S80" s="4">
         <v>43966</v>
@@ -10106,7 +10102,7 @@
       </c>
       <c r="AD80" s="2"/>
       <c r="AE80" s="2" t="s">
-        <v>283</v>
+        <v>202</v>
       </c>
       <c r="AF80" s="2"/>
       <c r="AG80" s="2" t="s">
@@ -10116,19 +10112,19 @@
     </row>
     <row r="81" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>316</v>
+        <v>217</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>269</v>
+        <v>114</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>284</v>
+        <v>203</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2">
@@ -10140,16 +10136,20 @@
       <c r="I81" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
+      <c r="J81" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="L81" s="2" t="s">
-        <v>285</v>
+        <v>204</v>
       </c>
       <c r="M81" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N81" s="2" t="s">
-        <v>46</v>
+      <c r="N81" s="4">
+        <v>43966</v>
       </c>
       <c r="O81" s="2">
         <v>0</v>
@@ -10159,7 +10159,7 @@
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" s="2" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="S81" s="4">
         <v>43966</v>
@@ -10188,7 +10188,7 @@
       </c>
       <c r="AD81" s="2"/>
       <c r="AE81" s="2" t="s">
-        <v>286</v>
+        <v>205</v>
       </c>
       <c r="AF81" s="2"/>
       <c r="AG81" s="2" t="s">
@@ -10196,21 +10196,21 @@
       </c>
       <c r="AH81" s="2"/>
     </row>
-    <row r="82" spans="1:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>322</v>
+        <v>220</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>280</v>
+        <v>114</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>287</v>
+        <v>207</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2">
@@ -10220,7 +10220,7 @@
         <v>3</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>244</v>
+        <v>38</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>39</v>
@@ -10229,13 +10229,13 @@
         <v>105</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>288</v>
+        <v>208</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N82" s="4">
-        <v>43969</v>
+        <v>43966</v>
       </c>
       <c r="O82" s="2">
         <v>0</v>
@@ -10243,11 +10243,9 @@
       <c r="P82" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q82" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="Q82" s="2"/>
       <c r="R82" s="2" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="S82" s="4">
         <v>43966</v>
@@ -10276,7 +10274,7 @@
       </c>
       <c r="AD82" s="2"/>
       <c r="AE82" s="2" t="s">
-        <v>289</v>
+        <v>209</v>
       </c>
       <c r="AF82" s="2"/>
       <c r="AG82" s="2" t="s">
@@ -10286,19 +10284,19 @@
     </row>
     <row r="83" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>327</v>
+        <v>223</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>269</v>
+        <v>114</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>290</v>
+        <v>211</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2">
@@ -10310,16 +10308,20 @@
       <c r="I83" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
+      <c r="J83" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="L83" s="2" t="s">
-        <v>291</v>
+        <v>212</v>
       </c>
       <c r="M83" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N83" s="2" t="s">
-        <v>46</v>
+      <c r="N83" s="4">
+        <v>43966</v>
       </c>
       <c r="O83" s="2">
         <v>0</v>
@@ -10329,7 +10331,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" s="2" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="S83" s="4">
         <v>43966</v>
@@ -10358,7 +10360,7 @@
       </c>
       <c r="AD83" s="2"/>
       <c r="AE83" s="2" t="s">
-        <v>292</v>
+        <v>213</v>
       </c>
       <c r="AF83" s="2"/>
       <c r="AG83" s="2" t="s">
@@ -10368,19 +10370,19 @@
     </row>
     <row r="84" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>328</v>
+        <v>224</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>280</v>
+        <v>114</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>293</v>
+        <v>214</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2">
@@ -10390,7 +10392,7 @@
         <v>3</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>39</v>
@@ -10399,13 +10401,13 @@
         <v>105</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="M84" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N84" s="4">
-        <v>43969</v>
+        <v>43966</v>
       </c>
       <c r="O84" s="2">
         <v>0</v>
@@ -10413,11 +10415,9 @@
       <c r="P84" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q84" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="Q84" s="2"/>
       <c r="R84" s="2" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="S84" s="4">
         <v>43966</v>
@@ -10446,7 +10446,7 @@
       </c>
       <c r="AD84" s="2"/>
       <c r="AE84" s="2" t="s">
-        <v>295</v>
+        <v>216</v>
       </c>
       <c r="AF84" s="2"/>
       <c r="AG84" s="2" t="s">
@@ -10456,19 +10456,19 @@
     </row>
     <row r="85" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>329</v>
+        <v>231</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>296</v>
+        <v>114</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>297</v>
+        <v>218</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2">
@@ -10487,13 +10487,13 @@
         <v>105</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>298</v>
+        <v>219</v>
       </c>
       <c r="M85" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N85" s="4">
-        <v>43969</v>
+        <v>43966</v>
       </c>
       <c r="O85" s="2">
         <v>0</v>
@@ -10501,11 +10501,9 @@
       <c r="P85" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q85" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="Q85" s="2"/>
       <c r="R85" s="2" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="S85" s="4">
         <v>43966</v>
@@ -10534,7 +10532,7 @@
       </c>
       <c r="AD85" s="2"/>
       <c r="AE85" s="2" t="s">
-        <v>299</v>
+        <v>220</v>
       </c>
       <c r="AF85" s="2"/>
       <c r="AG85" s="2" t="s">
@@ -10544,19 +10542,19 @@
     </row>
     <row r="86" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>330</v>
+        <v>233</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>300</v>
+        <v>221</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2">
@@ -10569,13 +10567,13 @@
         <v>38</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>301</v>
+        <v>222</v>
       </c>
       <c r="M86" s="2" t="s">
         <v>42</v>
@@ -10591,7 +10589,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" s="2" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="S86" s="4">
         <v>43966</v>
@@ -10599,9 +10597,11 @@
       <c r="T86" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U86" s="2"/>
-      <c r="V86" s="2" t="s">
-        <v>46</v>
+      <c r="U86" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V86" s="4">
+        <v>43966</v>
       </c>
       <c r="W86" s="2"/>
       <c r="X86" s="2"/>
@@ -10618,7 +10618,7 @@
       </c>
       <c r="AD86" s="2"/>
       <c r="AE86" s="2" t="s">
-        <v>302</v>
+        <v>223</v>
       </c>
       <c r="AF86" s="2"/>
       <c r="AG86" s="2" t="s">
@@ -10627,6 +10627,9 @@
       <c r="AH86" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH86">
+    <sortCondition ref="C2"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/02 系统测试/05 项目成果输出/缺陷报告.xlsx
+++ b/02 系统测试/05 项目成果输出/缺陷报告.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\github_base\woniuboss2.5\02 系统测试\05 项目成果输出\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FF0A36-63EE-4B00-8A17-F7BB817D34B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20325" windowHeight="9000"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="woniuboss2.5_yang-未关闭Bug" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="281">
   <si>
     <t>所属项目</t>
   </si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>WoniuBoss2.5(#1)</t>
-  </si>
-  <si>
-    <t>WB2.5_市场营销模块，邮箱中有邮件时读取失败</t>
   </si>
   <si>
     <t>代码错误</t>
@@ -459,9 +459,6 @@
     <t>/后台管理(#76)</t>
   </si>
   <si>
-    <t>WB2.5_后台管理_角色管理_新增_角色名为空</t>
-  </si>
-  <si>
     <t xml:space="preserve">[前置条件]
 进入后台管理角色管理界面
 [步骤]
@@ -485,9 +482,6 @@
     <t>WB2.5_后台管理_角色管理_新增_角色名为空(2372)</t>
   </si>
   <si>
-    <t>WB2.5_后台管理_角色管理_修改_修改角色名为空</t>
-  </si>
-  <si>
     <t xml:space="preserve">[前置条件]
 进入后台管理角色管理界面
 [步骤]
@@ -526,9 +520,6 @@
 3. 保存失败，角色名不能为空
 4. 新增失败
 </t>
-  </si>
-  <si>
-    <t>WB2.5_后台管理_菜单管理_资源树编辑资源输入框为空</t>
   </si>
   <si>
     <t xml:space="preserve">[前置条件]
@@ -1502,9 +1493,6 @@
     <t>/市场营销(#68)</t>
   </si>
   <si>
-    <t>WB2.5_市场营销_读取邮箱_弹窗功能检查</t>
-  </si>
-  <si>
     <t xml:space="preserve">[前置条件]
 1.存在有管理员权限账户WNCD000
 woniu123/woniu123
@@ -1523,9 +1511,6 @@
   </si>
   <si>
     <t>WB2.5_市场营销_读取邮箱_弹窗功能检查(2326)</t>
-  </si>
-  <si>
-    <t>WB2.5_市场营销_读取邮箱_邮箱中有邮箱时读取</t>
   </si>
   <si>
     <t xml:space="preserve">[前置条件]
@@ -1548,9 +1533,6 @@
 2. 读取邮箱弹窗正常打开
 3. 成功读取邮箱通知对应主管分配资源
 </t>
-  </si>
-  <si>
-    <t>WB2.5_市场营销_新增网络_必填项全填</t>
   </si>
   <si>
     <t xml:space="preserve">[前置条件]
@@ -1580,9 +1562,6 @@
   </si>
   <si>
     <t>WB2.5_市场营销_新增网络_必填项全填(2337)</t>
-  </si>
-  <si>
-    <t>WB2.5_市场营销_搜索开始时间大于结束时间成功</t>
   </si>
   <si>
     <t xml:space="preserve">[前置条件]
@@ -2618,18 +2597,48 @@
   <si>
     <t>WB2.5_今日晨考录入_分数小于0的数字(395)</t>
   </si>
+  <si>
+    <t>WB2.5_市场营销模块，邮箱中有邮件时读取失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB2.5_后台管理_新增角色名为空保存成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB2.5_后台管理_新增角色保存失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB2.5_后台管理_修改角色名为空成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB2.5_市场营销_读取邮箱功能无效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB2.5_市场营销_读取邮箱功能有邮箱读取失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB2.5_市场营销_新增网络保存无提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB2.5_市场营销_能够搜索开始时间大于结束时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB2.5_后台管理_菜单管理资源树能编辑为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2644,345 +2653,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="华文中宋"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2990,255 +2682,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3257,62 +2707,21 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3599,40 +3008,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C84" activeCellId="1" sqref="D3 C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.8833333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.1083333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.109375" style="1" customWidth="1"/>
     <col min="7" max="8" width="10" style="1"/>
-    <col min="9" max="9" width="15.1083333333333" style="1" customWidth="1"/>
-    <col min="10" max="10" width="73.3333333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="255.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="1"/>
     <col min="12" max="12" width="12" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.1083333333333" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" style="1" customWidth="1"/>
     <col min="14" max="16" width="10" style="1"/>
     <col min="17" max="17" width="12" style="1" customWidth="1"/>
     <col min="18" max="19" width="10" style="1"/>
     <col min="20" max="20" width="12" style="1" customWidth="1"/>
-    <col min="21" max="21" width="27.5583333333333" style="2" customWidth="1"/>
+    <col min="21" max="21" width="27.5546875" style="2" customWidth="1"/>
     <col min="22" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3697,7 +3106,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:21">
+    <row r="2" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -3707,8 +3116,8 @@
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>24</v>
+      <c r="D2" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="E2" s="3">
         <v>2</v>
@@ -3717,50 +3126,52 @@
         <v>2</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="M2" s="3">
         <v>0</v>
       </c>
       <c r="N2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="5">
+        <v>43966</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="5">
-        <v>43966</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="5">
+        <v>43966</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="5">
-        <v>43966</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="3" ht="27" spans="1:21">
+    <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -3771,28 +3182,28 @@
         <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="3">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3">
-        <v>3</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="K3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L3" s="5">
         <v>43967</v>
@@ -3801,63 +3212,63 @@
         <v>0</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>43966</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="5">
+        <v>43966</v>
+      </c>
+      <c r="U3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>43966</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="T3" s="5">
-        <v>43966</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="4" ht="40.5" spans="1:21">
+    <row r="4" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="3">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L4" s="5">
         <v>43969</v>
@@ -3866,63 +3277,63 @@
         <v>0</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>43966</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="5">
+        <v>43966</v>
+      </c>
+      <c r="U4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="5">
-        <v>43966</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="T4" s="5">
-        <v>43966</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="5" ht="40.5" spans="1:21">
+    <row r="5" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="3">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3">
-        <v>3</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="K5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L5" s="5">
         <v>43969</v>
@@ -3931,13 +3342,13 @@
         <v>0</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="5">
         <v>43966</v>
@@ -3946,48 +3357,48 @@
         <v>23</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T5" s="5">
         <v>43966</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="6" ht="27" spans="1:21">
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="3">
-        <v>3</v>
-      </c>
-      <c r="F6" s="3">
-        <v>3</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="K6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L6" s="5">
         <v>43969</v>
@@ -3996,13 +3407,13 @@
         <v>0</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q6" s="5">
         <v>43966</v>
@@ -4011,48 +3422,48 @@
         <v>23</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T6" s="5">
         <v>43966</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="7" ht="27" spans="1:21">
+    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="3">
-        <v>3</v>
-      </c>
-      <c r="F7" s="3">
-        <v>3</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="K7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L7" s="5">
         <v>43967</v>
@@ -4061,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="5">
         <v>43966</v>
@@ -4076,27 +3487,27 @@
         <v>23</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T7" s="5">
         <v>43966</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="8" ht="27" spans="1:21">
+    <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -4105,78 +3516,80 @@
         <v>3</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="L8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M8" s="3">
         <v>1</v>
       </c>
       <c r="N8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3" t="s">
+      <c r="Q8" s="5">
+        <v>43966</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="T8" s="5">
+        <v>43966</v>
+      </c>
+      <c r="U8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q8" s="5">
-        <v>43966</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T8" s="5">
-        <v>43966</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>64</v>
-      </c>
     </row>
-    <row r="9" ht="27" spans="1:21">
+    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="3">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="K9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L9" s="5">
         <v>43967</v>
@@ -4185,63 +3598,63 @@
         <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>43966</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T9" s="5">
+        <v>43966</v>
+      </c>
+      <c r="U9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>43966</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="T9" s="5">
-        <v>43966</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="10" ht="27" spans="1:21">
+    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="3">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="K10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L10" s="5">
         <v>43967</v>
@@ -4250,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="5">
         <v>43966</v>
@@ -4265,48 +3678,48 @@
         <v>23</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T10" s="5">
         <v>43966</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="11" ht="27" spans="1:21">
+    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="3">
-        <v>3</v>
-      </c>
-      <c r="F11" s="3">
-        <v>3</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="K11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L11" s="5">
         <v>43967</v>
@@ -4315,13 +3728,13 @@
         <v>0</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="5">
         <v>43966</v>
@@ -4330,48 +3743,48 @@
         <v>23</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T11" s="5">
         <v>43966</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="12" ht="27" spans="1:21">
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="3">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="K12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L12" s="5">
         <v>43967</v>
@@ -4380,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="5">
         <v>43966</v>
@@ -4395,28 +3808,28 @@
         <v>23</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T12" s="5">
         <v>43966</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="13" ht="27" spans="1:21">
+    <row r="13" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="E13" s="3">
         <v>3</v>
       </c>
@@ -4424,19 +3837,19 @@
         <v>3</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L13" s="5">
         <v>43967</v>
@@ -4445,13 +3858,13 @@
         <v>0</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="5">
         <v>43966</v>
@@ -4460,48 +3873,48 @@
         <v>23</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T13" s="5">
         <v>43966</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="14" ht="27" spans="1:21">
+    <row r="14" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="3">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="K14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L14" s="5">
         <v>43967</v>
@@ -4510,11 +3923,13 @@
         <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O14" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="P14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="5">
         <v>43966</v>
@@ -4523,27 +3938,27 @@
         <v>23</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T14" s="5">
         <v>43966</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="15" ht="27" spans="1:21">
+    <row r="15" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="3">
         <v>3</v>
@@ -4552,19 +3967,19 @@
         <v>3</v>
       </c>
       <c r="G15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="I15" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L15" s="5">
         <v>43967</v>
@@ -4573,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="5">
         <v>43966</v>
@@ -4588,48 +4003,48 @@
         <v>23</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T15" s="5">
         <v>43966</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="16" ht="27" spans="1:21">
+    <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="3">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="3">
-        <v>3</v>
-      </c>
-      <c r="F16" s="3">
-        <v>3</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="K16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L16" s="5">
         <v>43969</v>
@@ -4638,13 +4053,13 @@
         <v>0</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q16" s="5">
         <v>43966</v>
@@ -4653,27 +4068,27 @@
         <v>23</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T16" s="5">
         <v>43966</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="17" ht="27" spans="1:21">
+    <row r="17" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>83</v>
+      <c r="D17" s="6" t="s">
+        <v>274</v>
       </c>
       <c r="E17" s="3">
         <v>3</v>
@@ -4682,19 +4097,19 @@
         <v>2</v>
       </c>
       <c r="G17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="J17" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L17" s="5">
         <v>43966</v>
@@ -4703,40 +4118,42 @@
         <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3" t="s">
+      <c r="Q17" s="5">
+        <v>43966</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q17" s="5">
-        <v>43966</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="T17" s="5">
         <v>43966</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="18" ht="27" spans="1:21">
+    <row r="18" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>86</v>
+      <c r="D18" s="6" t="s">
+        <v>275</v>
       </c>
       <c r="E18" s="3">
         <v>3</v>
@@ -4745,19 +4162,19 @@
         <v>3</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="J18" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L18" s="5">
         <v>43966</v>
@@ -4766,40 +4183,42 @@
         <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3" t="s">
+      <c r="Q18" s="5">
+        <v>43966</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q18" s="5">
-        <v>43966</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="T18" s="5">
         <v>43966</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="19" ht="27" spans="1:21">
+    <row r="19" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>83</v>
+      <c r="D19" s="6" t="s">
+        <v>273</v>
       </c>
       <c r="E19" s="3">
         <v>3</v>
@@ -4808,19 +4227,19 @@
         <v>3</v>
       </c>
       <c r="G19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="J19" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L19" s="5">
         <v>43966</v>
@@ -4829,11 +4248,13 @@
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P19" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="Q19" s="5">
         <v>43966</v>
@@ -4843,24 +4264,24 @@
       </c>
       <c r="S19" s="3"/>
       <c r="T19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="20" ht="27" spans="1:21">
+    <row r="20" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>90</v>
+      <c r="D20" s="6" t="s">
+        <v>280</v>
       </c>
       <c r="E20" s="3">
         <v>3</v>
@@ -4869,19 +4290,19 @@
         <v>3</v>
       </c>
       <c r="G20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="J20" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L20" s="5">
         <v>43966</v>
@@ -4890,11 +4311,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P20" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="Q20" s="5">
         <v>43966</v>
@@ -4904,24 +4327,24 @@
       </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="21" ht="40.5" spans="1:21">
+    <row r="21" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E21" s="3">
         <v>2</v>
@@ -4930,19 +4353,19 @@
         <v>2</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L21" s="5">
         <v>43967</v>
@@ -4951,13 +4374,13 @@
         <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="5">
         <v>43966</v>
@@ -4966,27 +4389,27 @@
         <v>23</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T21" s="5">
         <v>43966</v>
       </c>
       <c r="U21" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="22" ht="27" spans="1:21">
+    <row r="22" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="E22" s="3">
         <v>2</v>
@@ -4995,19 +4418,19 @@
         <v>2</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L22" s="5">
         <v>43967</v>
@@ -5016,13 +4439,13 @@
         <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="5">
         <v>43966</v>
@@ -5031,27 +4454,27 @@
         <v>23</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T22" s="5">
         <v>43966</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="23" ht="27" spans="1:21">
+    <row r="23" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E23" s="3">
         <v>3</v>
@@ -5060,19 +4483,19 @@
         <v>3</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L23" s="5">
         <v>43967</v>
@@ -5081,13 +4504,13 @@
         <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="5">
         <v>43966</v>
@@ -5096,28 +4519,28 @@
         <v>23</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T23" s="5">
         <v>43966</v>
       </c>
       <c r="U23" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="24" ht="27" spans="1:21">
+    <row r="24" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="E24" s="3">
         <v>3</v>
       </c>
@@ -5125,19 +4548,19 @@
         <v>3</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L24" s="5">
         <v>43967</v>
@@ -5146,13 +4569,13 @@
         <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q24" s="5">
         <v>43966</v>
@@ -5161,27 +4584,27 @@
         <v>23</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T24" s="5">
         <v>43966</v>
       </c>
       <c r="U24" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="25" ht="27" spans="1:21">
+    <row r="25" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E25" s="3">
         <v>3</v>
@@ -5190,19 +4613,19 @@
         <v>3</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L25" s="5">
         <v>43967</v>
@@ -5211,13 +4634,13 @@
         <v>0</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q25" s="5">
         <v>43966</v>
@@ -5226,27 +4649,27 @@
         <v>23</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T25" s="5">
         <v>43966</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
-    <row r="26" ht="40.5" spans="1:21">
+    <row r="26" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E26" s="3">
         <v>3</v>
@@ -5255,15 +4678,15 @@
         <v>3</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L26" s="5">
         <v>43967</v>
@@ -5272,13 +4695,13 @@
         <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q26" s="5">
         <v>43966</v>
@@ -5287,27 +4710,27 @@
         <v>23</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T26" s="5">
         <v>43966</v>
       </c>
       <c r="U26" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="27" ht="40.5" spans="1:21">
+    <row r="27" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E27" s="3">
         <v>3</v>
@@ -5316,19 +4739,19 @@
         <v>3</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L27" s="5">
         <v>43967</v>
@@ -5337,13 +4760,13 @@
         <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="5">
         <v>43966</v>
@@ -5352,27 +4775,27 @@
         <v>23</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T27" s="5">
         <v>43966</v>
       </c>
       <c r="U27" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
-    <row r="28" ht="27" spans="1:21">
+    <row r="28" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E28" s="3">
         <v>3</v>
@@ -5381,19 +4804,19 @@
         <v>3</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L28" s="5">
         <v>43967</v>
@@ -5402,13 +4825,13 @@
         <v>0</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q28" s="5">
         <v>43966</v>
@@ -5417,28 +4840,28 @@
         <v>23</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T28" s="5">
         <v>43966</v>
       </c>
       <c r="U28" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="29" ht="27" spans="1:21">
+    <row r="29" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="E29" s="3">
         <v>3</v>
       </c>
@@ -5446,19 +4869,19 @@
         <v>3</v>
       </c>
       <c r="G29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="I29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L29" s="5">
         <v>43967</v>
@@ -5467,13 +4890,13 @@
         <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q29" s="5">
         <v>43966</v>
@@ -5482,27 +4905,27 @@
         <v>23</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T29" s="5">
         <v>43966</v>
       </c>
       <c r="U29" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
-    <row r="30" ht="27" spans="1:21">
+    <row r="30" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E30" s="3">
         <v>3</v>
@@ -5511,19 +4934,19 @@
         <v>3</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L30" s="5">
         <v>43967</v>
@@ -5532,13 +4955,13 @@
         <v>0</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q30" s="5">
         <v>43966</v>
@@ -5547,27 +4970,27 @@
         <v>23</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T30" s="5">
         <v>43966</v>
       </c>
       <c r="U30" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="31" ht="27" spans="1:21">
+    <row r="31" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E31" s="3">
         <v>3</v>
@@ -5576,19 +4999,19 @@
         <v>3</v>
       </c>
       <c r="G31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="I31" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L31" s="5">
         <v>43967</v>
@@ -5597,13 +5020,13 @@
         <v>0</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q31" s="5">
         <v>43966</v>
@@ -5612,27 +5035,27 @@
         <v>23</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T31" s="5">
         <v>43966</v>
       </c>
       <c r="U31" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="32" ht="27" spans="1:21">
+    <row r="32" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E32" s="3">
         <v>3</v>
@@ -5641,34 +5064,34 @@
         <v>3</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q32" s="5">
         <v>43966</v>
@@ -5677,28 +5100,28 @@
         <v>23</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T32" s="5">
         <v>43966</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="33" ht="27" spans="1:21">
+    <row r="33" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="E33" s="3">
         <v>3</v>
       </c>
@@ -5706,19 +5129,19 @@
         <v>3</v>
       </c>
       <c r="G33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="I33" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L33" s="5">
         <v>43967</v>
@@ -5727,13 +5150,13 @@
         <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="5">
         <v>43966</v>
@@ -5742,27 +5165,27 @@
         <v>23</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T33" s="5">
         <v>43966</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
-    <row r="34" ht="27" spans="1:21">
+    <row r="34" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E34" s="3">
         <v>3</v>
@@ -5771,19 +5194,19 @@
         <v>3</v>
       </c>
       <c r="G34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="I34" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L34" s="5">
         <v>43967</v>
@@ -5792,13 +5215,13 @@
         <v>0</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q34" s="5">
         <v>43966</v>
@@ -5807,27 +5230,27 @@
         <v>23</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T34" s="5">
         <v>43966</v>
       </c>
       <c r="U34" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="35" ht="27" spans="1:21">
+    <row r="35" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E35" s="3">
         <v>3</v>
@@ -5836,19 +5259,19 @@
         <v>3</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L35" s="5">
         <v>43967</v>
@@ -5857,13 +5280,13 @@
         <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q35" s="5">
         <v>43966</v>
@@ -5872,27 +5295,27 @@
         <v>23</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T35" s="5">
         <v>43966</v>
       </c>
       <c r="U35" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
-    <row r="36" ht="27" spans="1:21">
+    <row r="36" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E36" s="3">
         <v>3</v>
@@ -5901,19 +5324,19 @@
         <v>3</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L36" s="5">
         <v>43967</v>
@@ -5922,13 +5345,13 @@
         <v>0</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q36" s="5">
         <v>43966</v>
@@ -5937,27 +5360,27 @@
         <v>23</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T36" s="5">
         <v>43966</v>
       </c>
       <c r="U36" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="37" ht="27" spans="1:21">
+    <row r="37" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E37" s="3">
         <v>3</v>
@@ -5966,19 +5389,19 @@
         <v>3</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L37" s="5">
         <v>43969</v>
@@ -5987,13 +5410,13 @@
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q37" s="5">
         <v>43966</v>
@@ -6002,28 +5425,28 @@
         <v>23</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T37" s="5">
         <v>43966</v>
       </c>
       <c r="U37" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="38" ht="27" spans="1:21">
+    <row r="38" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="E38" s="3">
         <v>3</v>
       </c>
@@ -6031,15 +5454,15 @@
         <v>3</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L38" s="5">
         <v>43969</v>
@@ -6048,13 +5471,13 @@
         <v>0</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q38" s="5">
         <v>43966</v>
@@ -6063,27 +5486,27 @@
         <v>23</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T38" s="5">
         <v>43966</v>
       </c>
       <c r="U38" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="39" ht="40.5" spans="1:21">
+    <row r="39" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E39" s="3">
         <v>3</v>
@@ -6092,19 +5515,19 @@
         <v>3</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L39" s="5">
         <v>43969</v>
@@ -6113,13 +5536,13 @@
         <v>0</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q39" s="5">
         <v>43966</v>
@@ -6128,27 +5551,27 @@
         <v>23</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T39" s="5">
         <v>43966</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="40" ht="40.5" spans="1:21">
+    <row r="40" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E40" s="3">
         <v>3</v>
@@ -6157,19 +5580,19 @@
         <v>3</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L40" s="5">
         <v>43969</v>
@@ -6178,13 +5601,13 @@
         <v>0</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q40" s="5">
         <v>43966</v>
@@ -6193,27 +5616,27 @@
         <v>23</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T40" s="5">
         <v>43966</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="41" ht="40.5" spans="1:21">
+    <row r="41" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E41" s="3">
         <v>3</v>
@@ -6222,19 +5645,19 @@
         <v>3</v>
       </c>
       <c r="G41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="J41" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L41" s="5">
         <v>43969</v>
@@ -6243,11 +5666,11 @@
         <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O41" s="3"/>
       <c r="P41" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q41" s="5">
         <v>43966</v>
@@ -6256,27 +5679,27 @@
         <v>23</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T41" s="5">
         <v>43966</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="42" ht="40.5" spans="1:21">
+    <row r="42" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E42" s="3">
         <v>3</v>
@@ -6285,19 +5708,19 @@
         <v>3</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L42" s="5">
         <v>43969</v>
@@ -6306,13 +5729,13 @@
         <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q42" s="5">
         <v>43966</v>
@@ -6321,27 +5744,27 @@
         <v>23</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T42" s="5">
         <v>43966</v>
       </c>
       <c r="U42" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="43" ht="40.5" spans="1:21">
+    <row r="43" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E43" s="3">
         <v>3</v>
@@ -6350,19 +5773,19 @@
         <v>3</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L43" s="5">
         <v>43969</v>
@@ -6371,13 +5794,13 @@
         <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q43" s="5">
         <v>43966</v>
@@ -6386,27 +5809,27 @@
         <v>23</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T43" s="5">
         <v>43966</v>
       </c>
       <c r="U43" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="44" ht="27" spans="1:21">
+    <row r="44" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E44" s="3">
         <v>3</v>
@@ -6415,19 +5838,19 @@
         <v>3</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L44" s="5">
         <v>43969</v>
@@ -6436,13 +5859,13 @@
         <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q44" s="5">
         <v>43966</v>
@@ -6451,27 +5874,27 @@
         <v>23</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T44" s="5">
         <v>43966</v>
       </c>
       <c r="U44" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
-    <row r="45" ht="27" spans="1:21">
+    <row r="45" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E45" s="3">
         <v>3</v>
@@ -6480,19 +5903,19 @@
         <v>3</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L45" s="5">
         <v>43969</v>
@@ -6501,13 +5924,13 @@
         <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q45" s="5">
         <v>43966</v>
@@ -6516,27 +5939,27 @@
         <v>23</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T45" s="5">
         <v>43966</v>
       </c>
       <c r="U45" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
-    <row r="46" ht="27" spans="1:21">
+    <row r="46" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E46" s="3">
         <v>3</v>
@@ -6545,19 +5968,19 @@
         <v>3</v>
       </c>
       <c r="G46" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I46" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="J46" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L46" s="5">
         <v>43969</v>
@@ -6566,13 +5989,13 @@
         <v>0</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q46" s="5">
         <v>43966</v>
@@ -6581,27 +6004,27 @@
         <v>23</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T46" s="5">
         <v>43966</v>
       </c>
       <c r="U46" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
-    <row r="47" ht="40.5" spans="1:21">
+    <row r="47" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E47" s="3">
         <v>3</v>
@@ -6610,19 +6033,19 @@
         <v>3</v>
       </c>
       <c r="G47" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I47" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="J47" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L47" s="5">
         <v>43969</v>
@@ -6631,13 +6054,13 @@
         <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q47" s="5">
         <v>43966</v>
@@ -6646,27 +6069,27 @@
         <v>23</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T47" s="5">
         <v>43966</v>
       </c>
       <c r="U47" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
-    <row r="48" ht="27" spans="1:21">
+    <row r="48" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E48" s="3">
         <v>3</v>
@@ -6675,19 +6098,19 @@
         <v>3</v>
       </c>
       <c r="G48" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I48" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="J48" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L48" s="5">
         <v>43969</v>
@@ -6696,13 +6119,13 @@
         <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q48" s="5">
         <v>43966</v>
@@ -6711,27 +6134,27 @@
         <v>23</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T48" s="5">
         <v>43966</v>
       </c>
       <c r="U48" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="49" ht="27" spans="1:21">
+    <row r="49" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E49" s="3">
         <v>3</v>
@@ -6740,19 +6163,19 @@
         <v>3</v>
       </c>
       <c r="G49" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I49" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="J49" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L49" s="5">
         <v>43969</v>
@@ -6761,13 +6184,13 @@
         <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q49" s="5">
         <v>43966</v>
@@ -6776,27 +6199,27 @@
         <v>23</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T49" s="5">
         <v>43966</v>
       </c>
       <c r="U49" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="50" ht="27" spans="1:21">
+    <row r="50" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E50" s="3">
         <v>3</v>
@@ -6805,19 +6228,19 @@
         <v>3</v>
       </c>
       <c r="G50" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I50" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H50" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="J50" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L50" s="5">
         <v>43969</v>
@@ -6826,13 +6249,13 @@
         <v>0</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q50" s="5">
         <v>43966</v>
@@ -6841,27 +6264,27 @@
         <v>23</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T50" s="5">
         <v>43966</v>
       </c>
       <c r="U50" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
-    <row r="51" ht="27" spans="1:21">
+    <row r="51" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>178</v>
+      <c r="D51" s="6" t="s">
+        <v>276</v>
       </c>
       <c r="E51" s="3">
         <v>3</v>
@@ -6870,19 +6293,19 @@
         <v>3</v>
       </c>
       <c r="G51" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I51" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="J51" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L51" s="5">
         <v>43966</v>
@@ -6891,40 +6314,42 @@
         <v>0</v>
       </c>
       <c r="N51" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P51" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3" t="s">
+      <c r="Q51" s="5">
+        <v>43966</v>
+      </c>
+      <c r="R51" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S51" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q51" s="5">
-        <v>43966</v>
-      </c>
-      <c r="R51" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S51" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="T51" s="5">
         <v>43966</v>
       </c>
       <c r="U51" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="52" ht="27" spans="1:21">
+    <row r="52" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>181</v>
+      <c r="D52" s="6" t="s">
+        <v>277</v>
       </c>
       <c r="E52" s="3">
         <v>3</v>
@@ -6933,19 +6358,19 @@
         <v>3</v>
       </c>
       <c r="G52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="I52" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="J52" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L52" s="5">
         <v>43966</v>
@@ -6954,11 +6379,13 @@
         <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P52" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="Q52" s="5">
         <v>43966</v>
@@ -6968,24 +6395,24 @@
       </c>
       <c r="S52" s="3"/>
       <c r="T52" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U52" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="53" ht="27" spans="1:21">
+    <row r="53" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>183</v>
+      <c r="D53" s="6" t="s">
+        <v>278</v>
       </c>
       <c r="E53" s="3">
         <v>3</v>
@@ -6994,57 +6421,59 @@
         <v>3</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="K53" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L53" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="M53" s="3">
         <v>0</v>
       </c>
       <c r="N53" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P53" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3" t="s">
+      <c r="Q53" s="5">
+        <v>43966</v>
+      </c>
+      <c r="R53" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S53" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q53" s="5">
-        <v>43966</v>
-      </c>
-      <c r="R53" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S53" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="T53" s="5">
         <v>43966</v>
       </c>
       <c r="U53" s="4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="54" ht="27" spans="1:21">
+    <row r="54" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>186</v>
+      <c r="D54" s="6" t="s">
+        <v>279</v>
       </c>
       <c r="E54" s="3">
         <v>3</v>
@@ -7053,57 +6482,59 @@
         <v>3</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="K54" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L54" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
       <c r="N54" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P54" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3" t="s">
+      <c r="Q54" s="5">
+        <v>43966</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S54" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q54" s="5">
-        <v>43966</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="T54" s="5">
         <v>43966</v>
       </c>
       <c r="U54" s="4" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
-    <row r="55" ht="27" spans="1:21">
+    <row r="55" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E55" s="3">
         <v>3</v>
@@ -7112,32 +6543,32 @@
         <v>3</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="K55" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L55" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="M55" s="3">
         <v>0</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O55" s="3"/>
       <c r="P55" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q55" s="5">
         <v>43966</v>
@@ -7146,27 +6577,27 @@
         <v>23</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T55" s="5">
         <v>43966</v>
       </c>
       <c r="U55" s="4" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
-    <row r="56" ht="40.5" spans="1:21">
+    <row r="56" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E56" s="3">
         <v>3</v>
@@ -7175,32 +6606,32 @@
         <v>3</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="K56" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L56" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="M56" s="3">
         <v>0</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O56" s="3"/>
       <c r="P56" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q56" s="5">
         <v>43966</v>
@@ -7209,28 +6640,28 @@
         <v>23</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T56" s="5">
         <v>43966</v>
       </c>
       <c r="U56" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
-    <row r="57" ht="40.5" spans="1:21">
+    <row r="57" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>197</v>
-      </c>
       <c r="E57" s="3">
         <v>3</v>
       </c>
@@ -7238,19 +6669,19 @@
         <v>3</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L57" s="5">
         <v>43966</v>
@@ -7259,11 +6690,11 @@
         <v>0</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O57" s="3"/>
       <c r="P57" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q57" s="5">
         <v>43966</v>
@@ -7272,27 +6703,27 @@
         <v>23</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T57" s="5">
         <v>43966</v>
       </c>
       <c r="U57" s="4" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="58" ht="27" spans="1:21">
+    <row r="58" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E58" s="3">
         <v>3</v>
@@ -7301,19 +6732,19 @@
         <v>3</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L58" s="5">
         <v>43966</v>
@@ -7322,11 +6753,11 @@
         <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O58" s="3"/>
       <c r="P58" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q58" s="5">
         <v>43966</v>
@@ -7335,27 +6766,27 @@
         <v>23</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T58" s="5">
         <v>43966</v>
       </c>
       <c r="U58" s="4" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="59" ht="27" spans="1:21">
+    <row r="59" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E59" s="3">
         <v>3</v>
@@ -7364,19 +6795,19 @@
         <v>3</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L59" s="5">
         <v>43966</v>
@@ -7385,11 +6816,11 @@
         <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O59" s="3"/>
       <c r="P59" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q59" s="5">
         <v>43966</v>
@@ -7398,27 +6829,27 @@
         <v>23</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T59" s="5">
         <v>43966</v>
       </c>
       <c r="U59" s="4" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
-    <row r="60" ht="27" spans="1:21">
+    <row r="60" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E60" s="3">
         <v>3</v>
@@ -7427,19 +6858,19 @@
         <v>3</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L60" s="5">
         <v>43966</v>
@@ -7448,11 +6879,11 @@
         <v>0</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O60" s="3"/>
       <c r="P60" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q60" s="5">
         <v>43966</v>
@@ -7461,27 +6892,27 @@
         <v>23</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T60" s="5">
         <v>43966</v>
       </c>
       <c r="U60" s="4" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
-    <row r="61" ht="27" spans="1:21">
+    <row r="61" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E61" s="3">
         <v>3</v>
@@ -7490,19 +6921,19 @@
         <v>3</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L61" s="5">
         <v>43966</v>
@@ -7511,11 +6942,11 @@
         <v>0</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O61" s="3"/>
       <c r="P61" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q61" s="5">
         <v>43966</v>
@@ -7524,27 +6955,27 @@
         <v>23</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T61" s="5">
         <v>43966</v>
       </c>
       <c r="U61" s="4" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
-    <row r="62" ht="27" spans="1:21">
+    <row r="62" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E62" s="3">
         <v>3</v>
@@ -7553,19 +6984,19 @@
         <v>3</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L62" s="5">
         <v>43966</v>
@@ -7574,11 +7005,11 @@
         <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O62" s="3"/>
       <c r="P62" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q62" s="5">
         <v>43966</v>
@@ -7587,27 +7018,27 @@
         <v>23</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T62" s="5">
         <v>43966</v>
       </c>
       <c r="U62" s="4" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="63" ht="40.5" spans="1:21">
+    <row r="63" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E63" s="3">
         <v>3</v>
@@ -7616,19 +7047,19 @@
         <v>3</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L63" s="5">
         <v>43966</v>
@@ -7637,11 +7068,11 @@
         <v>0</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O63" s="3"/>
       <c r="P63" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q63" s="5">
         <v>43966</v>
@@ -7650,27 +7081,27 @@
         <v>23</v>
       </c>
       <c r="S63" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T63" s="5">
         <v>43966</v>
       </c>
       <c r="U63" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
-    <row r="64" ht="54" spans="1:21">
+    <row r="64" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E64" s="3">
         <v>3</v>
@@ -7679,19 +7110,19 @@
         <v>3</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L64" s="5">
         <v>43966</v>
@@ -7700,11 +7131,11 @@
         <v>0</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O64" s="3"/>
       <c r="P64" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q64" s="5">
         <v>43966</v>
@@ -7713,27 +7144,27 @@
         <v>23</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T64" s="5">
         <v>43966</v>
       </c>
       <c r="U64" s="4" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
-    <row r="65" ht="40.5" spans="1:21">
+    <row r="65" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E65" s="3">
         <v>3</v>
@@ -7742,19 +7173,19 @@
         <v>3</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L65" s="5">
         <v>43966</v>
@@ -7763,11 +7194,11 @@
         <v>0</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O65" s="3"/>
       <c r="P65" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q65" s="5">
         <v>43966</v>
@@ -7776,27 +7207,27 @@
         <v>23</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T65" s="5">
         <v>43966</v>
       </c>
       <c r="U65" s="4" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
-    <row r="66" ht="54" spans="1:21">
+    <row r="66" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E66" s="3">
         <v>3</v>
@@ -7805,19 +7236,19 @@
         <v>3</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L66" s="5">
         <v>43966</v>
@@ -7826,11 +7257,11 @@
         <v>0</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O66" s="3"/>
       <c r="P66" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q66" s="5">
         <v>43966</v>
@@ -7839,27 +7270,27 @@
         <v>23</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T66" s="5">
         <v>43966</v>
       </c>
       <c r="U66" s="4" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
-    <row r="67" ht="54" spans="1:21">
+    <row r="67" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E67" s="3">
         <v>3</v>
@@ -7868,19 +7299,19 @@
         <v>3</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L67" s="5">
         <v>43966</v>
@@ -7889,11 +7320,11 @@
         <v>0</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O67" s="3"/>
       <c r="P67" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q67" s="5">
         <v>43966</v>
@@ -7902,27 +7333,27 @@
         <v>23</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T67" s="5">
         <v>43966</v>
       </c>
       <c r="U67" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
-    <row r="68" ht="40.5" spans="1:21">
+    <row r="68" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E68" s="3">
         <v>3</v>
@@ -7931,19 +7362,19 @@
         <v>3</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L68" s="5">
         <v>43966</v>
@@ -7952,11 +7383,11 @@
         <v>0</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O68" s="3"/>
       <c r="P68" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q68" s="5">
         <v>43966</v>
@@ -7965,27 +7396,27 @@
         <v>23</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T68" s="5">
         <v>43966</v>
       </c>
       <c r="U68" s="4" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
-    <row r="69" ht="27" spans="1:21">
+    <row r="69" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E69" s="3">
         <v>3</v>
@@ -7994,19 +7425,19 @@
         <v>3</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L69" s="5">
         <v>43966</v>
@@ -8015,11 +7446,11 @@
         <v>0</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O69" s="3"/>
       <c r="P69" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q69" s="5">
         <v>43966</v>
@@ -8028,27 +7459,27 @@
         <v>23</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T69" s="5">
         <v>43966</v>
       </c>
       <c r="U69" s="4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
-    <row r="70" ht="27" spans="1:21">
+    <row r="70" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E70" s="3">
         <v>3</v>
@@ -8057,19 +7488,19 @@
         <v>3</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L70" s="5">
         <v>43966</v>
@@ -8078,11 +7509,11 @@
         <v>0</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O70" s="3"/>
       <c r="P70" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q70" s="5">
         <v>43966</v>
@@ -8091,27 +7522,27 @@
         <v>23</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T70" s="5">
         <v>43966</v>
       </c>
       <c r="U70" s="4" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
-    <row r="71" ht="40.5" spans="1:21">
+    <row r="71" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E71" s="3">
         <v>3</v>
@@ -8120,19 +7551,19 @@
         <v>3</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L71" s="5">
         <v>43966</v>
@@ -8141,11 +7572,11 @@
         <v>0</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O71" s="3"/>
       <c r="P71" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q71" s="5">
         <v>43966</v>
@@ -8154,27 +7585,27 @@
         <v>23</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T71" s="5">
         <v>43966</v>
       </c>
       <c r="U71" s="4" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
-    <row r="72" ht="27" spans="1:21">
+    <row r="72" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E72" s="3">
         <v>3</v>
@@ -8183,19 +7614,19 @@
         <v>3</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L72" s="5">
         <v>43966</v>
@@ -8204,11 +7635,11 @@
         <v>0</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O72" s="3"/>
       <c r="P72" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q72" s="5">
         <v>43966</v>
@@ -8217,27 +7648,27 @@
         <v>23</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T72" s="5">
         <v>43966</v>
       </c>
       <c r="U72" s="4" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
-    <row r="73" ht="27" spans="1:21">
+    <row r="73" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E73" s="3">
         <v>3</v>
@@ -8246,19 +7677,19 @@
         <v>3</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L73" s="5">
         <v>43966</v>
@@ -8267,11 +7698,11 @@
         <v>0</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O73" s="3"/>
       <c r="P73" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q73" s="5">
         <v>43966</v>
@@ -8280,27 +7711,27 @@
         <v>23</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T73" s="5">
         <v>43966</v>
       </c>
       <c r="U73" s="4" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="74" ht="40.5" spans="1:21">
+    <row r="74" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E74" s="3">
         <v>3</v>
@@ -8309,19 +7740,19 @@
         <v>3</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L74" s="5">
         <v>43966</v>
@@ -8330,11 +7761,11 @@
         <v>0</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O74" s="3"/>
       <c r="P74" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q74" s="5">
         <v>43966</v>
@@ -8343,27 +7774,27 @@
         <v>23</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T74" s="5">
         <v>43966</v>
       </c>
       <c r="U74" s="4" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
-    <row r="75" ht="40.5" spans="1:21">
+    <row r="75" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E75" s="3">
         <v>3</v>
@@ -8372,19 +7803,19 @@
         <v>3</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L75" s="5">
         <v>43966</v>
@@ -8393,11 +7824,11 @@
         <v>0</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O75" s="3"/>
       <c r="P75" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q75" s="5">
         <v>43966</v>
@@ -8406,27 +7837,27 @@
         <v>23</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T75" s="5">
         <v>43966</v>
       </c>
       <c r="U75" s="4" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
-    <row r="76" ht="40.5" spans="1:21">
+    <row r="76" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E76" s="3">
         <v>3</v>
@@ -8435,19 +7866,19 @@
         <v>3</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L76" s="5">
         <v>43966</v>
@@ -8456,11 +7887,11 @@
         <v>0</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O76" s="3"/>
       <c r="P76" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q76" s="5">
         <v>43966</v>
@@ -8469,27 +7900,27 @@
         <v>23</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T76" s="5">
         <v>43966</v>
       </c>
       <c r="U76" s="4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
-    <row r="77" ht="27" spans="1:21">
+    <row r="77" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E77" s="3">
         <v>3</v>
@@ -8498,19 +7929,19 @@
         <v>3</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L77" s="5">
         <v>43966</v>
@@ -8519,11 +7950,11 @@
         <v>0</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O77" s="3"/>
       <c r="P77" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q77" s="5">
         <v>43966</v>
@@ -8532,27 +7963,27 @@
         <v>23</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T77" s="5">
         <v>43966</v>
       </c>
       <c r="U77" s="4" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="78" ht="27" spans="1:21">
+    <row r="78" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E78" s="3">
         <v>3</v>
@@ -8561,19 +7992,19 @@
         <v>3</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L78" s="5">
         <v>43966</v>
@@ -8582,11 +8013,11 @@
         <v>0</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O78" s="3"/>
       <c r="P78" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q78" s="5">
         <v>43966</v>
@@ -8595,27 +8026,27 @@
         <v>23</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T78" s="5">
         <v>43966</v>
       </c>
       <c r="U78" s="4" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
-    <row r="79" ht="27" spans="1:21">
+    <row r="79" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E79" s="3">
         <v>3</v>
@@ -8624,19 +8055,19 @@
         <v>3</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L79" s="5">
         <v>43966</v>
@@ -8645,11 +8076,11 @@
         <v>0</v>
       </c>
       <c r="N79" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O79" s="3"/>
       <c r="P79" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q79" s="5">
         <v>43966</v>
@@ -8658,27 +8089,27 @@
         <v>23</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T79" s="5">
         <v>43966</v>
       </c>
       <c r="U79" s="4" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
-    <row r="80" ht="27" spans="1:21">
+    <row r="80" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E80" s="3">
         <v>3</v>
@@ -8687,19 +8118,19 @@
         <v>3</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L80" s="5">
         <v>43966</v>
@@ -8708,11 +8139,11 @@
         <v>0</v>
       </c>
       <c r="N80" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O80" s="3"/>
       <c r="P80" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q80" s="5">
         <v>43966</v>
@@ -8721,27 +8152,27 @@
         <v>23</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T80" s="5">
         <v>43966</v>
       </c>
       <c r="U80" s="4" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
-    <row r="81" ht="27" spans="1:21">
+    <row r="81" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E81" s="3">
         <v>3</v>
@@ -8750,19 +8181,19 @@
         <v>3</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L81" s="5">
         <v>43966</v>
@@ -8771,11 +8202,11 @@
         <v>0</v>
       </c>
       <c r="N81" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O81" s="3"/>
       <c r="P81" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q81" s="5">
         <v>43966</v>
@@ -8784,27 +8215,27 @@
         <v>23</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T81" s="5">
         <v>43966</v>
       </c>
       <c r="U81" s="4" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
-    <row r="82" ht="27" spans="1:21">
+    <row r="82" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E82" s="3">
         <v>3</v>
@@ -8813,19 +8244,19 @@
         <v>3</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L82" s="5">
         <v>43966</v>
@@ -8834,11 +8265,11 @@
         <v>0</v>
       </c>
       <c r="N82" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O82" s="3"/>
       <c r="P82" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q82" s="5">
         <v>43966</v>
@@ -8847,27 +8278,27 @@
         <v>23</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T82" s="5">
         <v>43966</v>
       </c>
       <c r="U82" s="4" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
-    <row r="83" ht="27" spans="1:21">
+    <row r="83" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E83" s="3">
         <v>3</v>
@@ -8876,19 +8307,19 @@
         <v>3</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L83" s="5">
         <v>43966</v>
@@ -8897,11 +8328,11 @@
         <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O83" s="3"/>
       <c r="P83" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q83" s="5">
         <v>43966</v>
@@ -8910,27 +8341,27 @@
         <v>23</v>
       </c>
       <c r="S83" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T83" s="5">
         <v>43966</v>
       </c>
       <c r="U83" s="4" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
-    <row r="84" ht="27" spans="1:21">
+    <row r="84" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E84" s="3">
         <v>3</v>
@@ -8939,19 +8370,19 @@
         <v>3</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L84" s="5">
         <v>43966</v>
@@ -8960,11 +8391,11 @@
         <v>0</v>
       </c>
       <c r="N84" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O84" s="3"/>
       <c r="P84" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q84" s="5">
         <v>43966</v>
@@ -8973,27 +8404,27 @@
         <v>23</v>
       </c>
       <c r="S84" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T84" s="5">
         <v>43966</v>
       </c>
       <c r="U84" s="4" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
-    <row r="85" ht="27" spans="1:21">
+    <row r="85" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="E85" s="3">
         <v>3</v>
@@ -9002,19 +8433,19 @@
         <v>3</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L85" s="5">
         <v>43966</v>
@@ -9023,11 +8454,11 @@
         <v>0</v>
       </c>
       <c r="N85" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O85" s="3"/>
       <c r="P85" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q85" s="5">
         <v>43966</v>
@@ -9036,72 +8467,21 @@
         <v>23</v>
       </c>
       <c r="S85" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T85" s="5">
         <v>43966</v>
       </c>
       <c r="U85" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:U85">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U85">
     <sortCondition ref="B2"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/02 系统测试/05 项目成果输出/缺陷报告.xlsx
+++ b/02 系统测试/05 项目成果输出/缺陷报告.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\github_base\woniuboss2.5\02 系统测试\05 项目成果输出\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FF0A36-63EE-4B00-8A17-F7BB817D34B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23325" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="woniuboss2.5_yang-未关闭Bug" sheetId="4" r:id="rId1"/>
@@ -92,6 +86,9 @@
   </si>
   <si>
     <t>WoniuBoss2.5(#1)</t>
+  </si>
+  <si>
+    <t>WB2.5_市场营销模块，邮箱中有邮件时读取失败</t>
   </si>
   <si>
     <t>代码错误</t>
@@ -134,6 +131,9 @@
     <t>否</t>
   </si>
   <si>
+    <t>杨光亮</t>
+  </si>
+  <si>
     <t>黄欣雨</t>
   </si>
   <si>
@@ -168,16 +168,13 @@
 </t>
   </si>
   <si>
-    <t>杨光亮</t>
-  </si>
-  <si>
     <t>WB2.5_登录_用户名为3位字符(1538)</t>
   </si>
   <si>
     <t>/财务管理(#73)</t>
   </si>
   <si>
-    <t>WB2.5_财务管理_检验输入交易时间，金额，对方账号，资金用途都为空时的新增功能</t>
+    <t>WB2.5_财务管理_交易时间，金额，对方账号，资金用途都为空时新增成功，建议失败</t>
   </si>
   <si>
     <t>设计缺陷</t>
@@ -228,7 +225,7 @@
     <t>WB2.5_财务管理_检验输入交易时间，金额，对方账号，资金用途都为空时的新增功能(549)</t>
   </si>
   <si>
-    <t>WB2.5_财务管理_检验输入对方账号为全是特殊符号时的新增功能</t>
+    <t>WB2.5_财务管理_对方账号全为特殊符号时能新增成功，应该为失败</t>
   </si>
   <si>
     <t xml:space="preserve">[前置条件]
@@ -271,7 +268,7 @@
     <t>WB2.5_财务管理_检验输入对方账号为全是特殊符号时的新增功能(544)</t>
   </si>
   <si>
-    <t>WB2.5_财务管理_检验结束时间为空时的查询功能</t>
+    <t>WB2.5_财务管理_检验结束时间为空时查询失败，建议成功</t>
   </si>
   <si>
     <t>其他</t>
@@ -459,6 +456,9 @@
     <t>/后台管理(#76)</t>
   </si>
   <si>
+    <t>WB2.5_后台管理_新增角色保存失败</t>
+  </si>
+  <si>
     <t xml:space="preserve">[前置条件]
 进入后台管理角色管理界面
 [步骤]
@@ -482,6 +482,9 @@
     <t>WB2.5_后台管理_角色管理_新增_角色名为空(2372)</t>
   </si>
   <si>
+    <t>WB2.5_后台管理_修改角色名为空成功</t>
+  </si>
+  <si>
     <t xml:space="preserve">[前置条件]
 进入后台管理角色管理界面
 [步骤]
@@ -500,6 +503,9 @@
   </si>
   <si>
     <t>WB2.5_后台管理_角色管理_修改_修改角色名为空(2388)</t>
+  </si>
+  <si>
+    <t>WB2.5_后台管理_新增角色名为空保存成功</t>
   </si>
   <si>
     <t xml:space="preserve">[前置条件]
@@ -520,6 +526,9 @@
 3. 保存失败，角色名不能为空
 4. 新增失败
 </t>
+  </si>
+  <si>
+    <t>WB2.5_后台管理_菜单管理资源树能编辑为空</t>
   </si>
   <si>
     <t xml:space="preserve">[前置条件]
@@ -1042,7 +1051,7 @@
     <t>/人事管理(#74)</t>
   </si>
   <si>
-    <t>WB2.5_人事管理_检验区域，部门为空时的新增功能</t>
+    <t>WB2.5_人事管理_检验区域，部门为空时的新增失败，建议成功</t>
   </si>
   <si>
     <t xml:space="preserve">[前置条件]
@@ -1184,7 +1193,7 @@
     <t>WB2.5_人事管理_检验输入邮箱为微博邮箱的新增功能(706)</t>
   </si>
   <si>
-    <t>WB2.5_人事管理_输入电话号码中包含特殊符号新增员工成功</t>
+    <t>WB2.5_人事管理_输入电话号码中包含特殊符号新增员工成功，建议失败</t>
   </si>
   <si>
     <t xml:space="preserve">[前置条件]
@@ -1295,7 +1304,7 @@
     <t>WB2.5_人事管理_检验输入电话长度等于12位数的新增功能(701)</t>
   </si>
   <si>
-    <t>WB2.5_人事管理_检验电话为空时的新增失败</t>
+    <t>WB2.5_人事管理_检验电话为空时的新增失败，建议成功</t>
   </si>
   <si>
     <t xml:space="preserve">[前置条件]
@@ -1365,7 +1374,7 @@
     <t>WB2.5_人事管理_检验输入姓名为全特殊符号的新增功能(696)</t>
   </si>
   <si>
-    <t>WB2.5_人事管理_检验输入姓名为全英文的新增功能</t>
+    <t>WB2.5_人事管理_检验输入姓名为全英文的新增成功</t>
   </si>
   <si>
     <t xml:space="preserve">[前置条件]
@@ -1400,7 +1409,7 @@
     <t>WB2.5_人事管理_检验输入姓名为全英文的新增功能(694)</t>
   </si>
   <si>
-    <t>WB2.5_人事管理_修改QQ为长度等于12位数的修改功能检查</t>
+    <t>WB2.5_人事管理_修改QQ为长度等于12位数的修改成功，QQ长度为6到11位</t>
   </si>
   <si>
     <t xml:space="preserve">[前置条件]
@@ -1423,7 +1432,7 @@
     <t>WB2.5_人事管理_修改QQ为长度等于12位数的修改功能检查(688)</t>
   </si>
   <si>
-    <t>WB2.5_人事管理_修改QQ为长度等于5位数的修改功能检查</t>
+    <t>WB2.5_人事管理_修改QQ为长度等于5位数修改成功，QQ长度为6到11位</t>
   </si>
   <si>
     <t xml:space="preserve">[前置条件]
@@ -1442,7 +1451,7 @@
     <t>WB2.5_人事管理_修改QQ为长度等于5位数的修改功能检查(687)</t>
   </si>
   <si>
-    <t>WB2.5_人事管理_检查修改工号的修改功能</t>
+    <t>WB2.5_人事管理_检查修改工号的成功</t>
   </si>
   <si>
     <t xml:space="preserve">[前置条件]
@@ -1466,7 +1475,7 @@
     <t>WB2.5_人事管理_检查修改工号的修改功能(680)</t>
   </si>
   <si>
-    <t>WB2.5_人事管理_检查部门、姓名的组合查询功能</t>
+    <t>WB2.5_人事管理_检查部门、姓名的组合查询失败</t>
   </si>
   <si>
     <t xml:space="preserve">[前置条件]
@@ -1493,6 +1502,9 @@
     <t>/市场营销(#68)</t>
   </si>
   <si>
+    <t>WB2.5_市场营销_读取邮箱功能无效</t>
+  </si>
+  <si>
     <t xml:space="preserve">[前置条件]
 1.存在有管理员权限账户WNCD000
 woniu123/woniu123
@@ -1511,6 +1523,9 @@
   </si>
   <si>
     <t>WB2.5_市场营销_读取邮箱_弹窗功能检查(2326)</t>
+  </si>
+  <si>
+    <t>WB2.5_市场营销_读取邮箱功能有邮箱读取失败</t>
   </si>
   <si>
     <t xml:space="preserve">[前置条件]
@@ -1533,6 +1548,9 @@
 2. 读取邮箱弹窗正常打开
 3. 成功读取邮箱通知对应主管分配资源
 </t>
+  </si>
+  <si>
+    <t>WB2.5_市场营销_新增网络保存无提示</t>
   </si>
   <si>
     <t xml:space="preserve">[前置条件]
@@ -1562,6 +1580,9 @@
   </si>
   <si>
     <t>WB2.5_市场营销_新增网络_必填项全填(2337)</t>
+  </si>
+  <si>
+    <t>WB2.5_市场营销_能够搜索开始时间大于结束时间</t>
   </si>
   <si>
     <t xml:space="preserve">[前置条件]
@@ -2597,48 +2618,18 @@
   <si>
     <t>WB2.5_今日晨考录入_分数小于0的数字(395)</t>
   </si>
-  <si>
-    <t>WB2.5_市场营销模块，邮箱中有邮件时读取失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WB2.5_后台管理_新增角色名为空保存成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WB2.5_后台管理_新增角色保存失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WB2.5_后台管理_修改角色名为空成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WB2.5_市场营销_读取邮箱功能无效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WB2.5_市场营销_读取邮箱功能有邮箱读取失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WB2.5_市场营销_新增网络保存无提示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WB2.5_市场营销_能够搜索开始时间大于结束时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WB2.5_后台管理_菜单管理资源树能编辑为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2653,28 +2644,351 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="华文中宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="华文中宋"/>
-      <family val="3"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2682,9 +2996,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2704,24 +3260,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3008,40 +3608,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:U85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C84" activeCellId="1" sqref="D3 C84"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.88671875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.3333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.8833333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.1083333333333" style="1" customWidth="1"/>
     <col min="7" max="8" width="10" style="1"/>
-    <col min="9" max="9" width="15.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="255.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1083333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="255.775" style="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="1"/>
     <col min="12" max="12" width="12" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1083333333333" style="1" customWidth="1"/>
     <col min="14" max="16" width="10" style="1"/>
     <col min="17" max="17" width="12" style="1" customWidth="1"/>
     <col min="18" max="19" width="10" style="1"/>
     <col min="20" max="20" width="12" style="1" customWidth="1"/>
-    <col min="21" max="21" width="27.5546875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="27.5583333333333" style="2" customWidth="1"/>
     <col min="22" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3106,7 +3706,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" ht="27" spans="1:21">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -3116,8 +3716,8 @@
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>272</v>
+      <c r="D2" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E2" s="3">
         <v>2</v>
@@ -3126,52 +3726,52 @@
         <v>2</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M2" s="3">
         <v>0</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="6">
         <v>43966</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="5">
+        <v>34</v>
+      </c>
+      <c r="T2" s="6">
         <v>43966</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" ht="27" spans="1:21">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -3182,7 +3782,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3">
         <v>3</v>
@@ -3191,63 +3791,63 @@
         <v>3</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="5">
+        <v>29</v>
+      </c>
+      <c r="L3" s="6">
         <v>43967</v>
       </c>
       <c r="M3" s="3">
         <v>0</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="5">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="6">
         <v>43966</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" s="5">
+        <v>34</v>
+      </c>
+      <c r="T3" s="6">
         <v>43966</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" ht="40.5" spans="1:21">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" s="3">
         <v>3</v>
@@ -3256,63 +3856,63 @@
         <v>3</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="5">
+        <v>29</v>
+      </c>
+      <c r="L4" s="6">
         <v>43969</v>
       </c>
       <c r="M4" s="3">
         <v>0</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="5">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="6">
         <v>43966</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T4" s="5">
+        <v>34</v>
+      </c>
+      <c r="T4" s="6">
         <v>43966</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" ht="40.5" spans="1:21">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="3">
         <v>3</v>
@@ -3321,63 +3921,63 @@
         <v>3</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="5">
+        <v>29</v>
+      </c>
+      <c r="L5" s="6">
         <v>43969</v>
       </c>
       <c r="M5" s="3">
         <v>0</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q5" s="5">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="6">
         <v>43966</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T5" s="5">
+        <v>34</v>
+      </c>
+      <c r="T5" s="6">
         <v>43966</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" ht="27" spans="1:21">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6" s="3">
         <v>3</v>
@@ -3386,63 +3986,63 @@
         <v>3</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="5">
+        <v>29</v>
+      </c>
+      <c r="L6" s="6">
         <v>43969</v>
       </c>
       <c r="M6" s="3">
         <v>0</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q6" s="5">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="6">
         <v>43966</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T6" s="5">
+        <v>34</v>
+      </c>
+      <c r="T6" s="6">
         <v>43966</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" ht="27" spans="1:21">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -3451,63 +4051,63 @@
         <v>3</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="5">
+        <v>29</v>
+      </c>
+      <c r="L7" s="6">
         <v>43967</v>
       </c>
       <c r="M7" s="3">
         <v>0</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" s="5">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="6">
         <v>43966</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T7" s="5">
+        <v>34</v>
+      </c>
+      <c r="T7" s="6">
         <v>43966</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" ht="27" spans="1:21">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -3516,59 +4116,59 @@
         <v>3</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M8" s="3">
         <v>1</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q8" s="5">
+        <v>63</v>
+      </c>
+      <c r="Q8" s="6">
         <v>43966</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="T8" s="5">
+        <v>63</v>
+      </c>
+      <c r="T8" s="6">
         <v>43966</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" ht="27" spans="1:21">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -3577,63 +4177,63 @@
         <v>3</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="5">
+        <v>29</v>
+      </c>
+      <c r="L9" s="6">
         <v>43967</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q9" s="5">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="6">
         <v>43966</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T9" s="5">
+        <v>34</v>
+      </c>
+      <c r="T9" s="6">
         <v>43966</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" ht="27" spans="1:21">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E10" s="3">
         <v>3</v>
@@ -3642,63 +4242,63 @@
         <v>3</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="5">
+        <v>29</v>
+      </c>
+      <c r="L10" s="6">
         <v>43967</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q10" s="5">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="6">
         <v>43966</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T10" s="5">
+        <v>34</v>
+      </c>
+      <c r="T10" s="6">
         <v>43966</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" ht="27" spans="1:21">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E11" s="3">
         <v>3</v>
@@ -3707,63 +4307,63 @@
         <v>3</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="5">
+        <v>29</v>
+      </c>
+      <c r="L11" s="6">
         <v>43967</v>
       </c>
       <c r="M11" s="3">
         <v>0</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q11" s="5">
+        <v>32</v>
+      </c>
+      <c r="Q11" s="6">
         <v>43966</v>
       </c>
       <c r="R11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T11" s="5">
+        <v>34</v>
+      </c>
+      <c r="T11" s="6">
         <v>43966</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" ht="27" spans="1:21">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E12" s="3">
         <v>3</v>
@@ -3772,63 +4372,63 @@
         <v>3</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" s="5">
+        <v>29</v>
+      </c>
+      <c r="L12" s="6">
         <v>43967</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q12" s="5">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="6">
         <v>43966</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T12" s="5">
+        <v>34</v>
+      </c>
+      <c r="T12" s="6">
         <v>43966</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" ht="27" spans="1:21">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E13" s="3">
         <v>3</v>
@@ -3837,63 +4437,63 @@
         <v>3</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="5">
+        <v>29</v>
+      </c>
+      <c r="L13" s="6">
         <v>43967</v>
       </c>
       <c r="M13" s="3">
         <v>0</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q13" s="5">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="6">
         <v>43966</v>
       </c>
       <c r="R13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T13" s="5">
+        <v>34</v>
+      </c>
+      <c r="T13" s="6">
         <v>43966</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" ht="27" spans="1:21">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E14" s="3">
         <v>3</v>
@@ -3902,63 +4502,63 @@
         <v>3</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="5">
+        <v>29</v>
+      </c>
+      <c r="L14" s="6">
         <v>43967</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q14" s="5">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="6">
         <v>43966</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T14" s="5">
+        <v>34</v>
+      </c>
+      <c r="T14" s="6">
         <v>43966</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" ht="27" spans="1:21">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E15" s="3">
         <v>3</v>
@@ -3967,63 +4567,63 @@
         <v>3</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="5">
+        <v>29</v>
+      </c>
+      <c r="L15" s="6">
         <v>43967</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q15" s="5">
+        <v>32</v>
+      </c>
+      <c r="Q15" s="6">
         <v>43966</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T15" s="5">
+        <v>34</v>
+      </c>
+      <c r="T15" s="6">
         <v>43966</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" ht="27" spans="1:21">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E16" s="3">
         <v>3</v>
@@ -4032,63 +4632,63 @@
         <v>3</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="5">
+        <v>29</v>
+      </c>
+      <c r="L16" s="6">
         <v>43969</v>
       </c>
       <c r="M16" s="3">
         <v>0</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q16" s="5">
+        <v>46</v>
+      </c>
+      <c r="Q16" s="6">
         <v>43966</v>
       </c>
       <c r="R16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T16" s="5">
+        <v>34</v>
+      </c>
+      <c r="T16" s="6">
         <v>43966</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" ht="27" spans="1:21">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>274</v>
+      <c r="D17" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="E17" s="3">
         <v>3</v>
@@ -4097,63 +4697,63 @@
         <v>2</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" s="5">
+        <v>29</v>
+      </c>
+      <c r="L17" s="6">
         <v>43966</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q17" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="6">
         <v>43966</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T17" s="5">
+        <v>34</v>
+      </c>
+      <c r="T17" s="6">
         <v>43966</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" ht="27" spans="1:21">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>275</v>
+      <c r="D18" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="E18" s="3">
         <v>3</v>
@@ -4162,63 +4762,63 @@
         <v>3</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" s="5">
+        <v>29</v>
+      </c>
+      <c r="L18" s="6">
         <v>43966</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q18" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="6">
         <v>43966</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T18" s="5">
+        <v>34</v>
+      </c>
+      <c r="T18" s="6">
         <v>43966</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" ht="27" spans="1:21">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>273</v>
+      <c r="D19" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="E19" s="3">
         <v>3</v>
@@ -4227,36 +4827,36 @@
         <v>3</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L19" s="5">
+        <v>29</v>
+      </c>
+      <c r="L19" s="6">
         <v>43966</v>
       </c>
       <c r="M19" s="3">
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q19" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="6">
         <v>43966</v>
       </c>
       <c r="R19" s="3" t="s">
@@ -4264,24 +4864,24 @@
       </c>
       <c r="S19" s="3"/>
       <c r="T19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" ht="27" spans="1:21">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>280</v>
+      <c r="D20" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="E20" s="3">
         <v>3</v>
@@ -4290,36 +4890,36 @@
         <v>3</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20" s="5">
+        <v>29</v>
+      </c>
+      <c r="L20" s="6">
         <v>43966</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q20" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q20" s="6">
         <v>43966</v>
       </c>
       <c r="R20" s="3" t="s">
@@ -4327,24 +4927,24 @@
       </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" ht="40.5" spans="1:21">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E21" s="3">
         <v>2</v>
@@ -4353,63 +4953,63 @@
         <v>2</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="5">
+        <v>29</v>
+      </c>
+      <c r="L21" s="6">
         <v>43967</v>
       </c>
       <c r="M21" s="3">
         <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q21" s="5">
+        <v>32</v>
+      </c>
+      <c r="Q21" s="6">
         <v>43966</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T21" s="5">
+        <v>34</v>
+      </c>
+      <c r="T21" s="6">
         <v>43966</v>
       </c>
       <c r="U21" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" ht="27" spans="1:21">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E22" s="3">
         <v>2</v>
@@ -4418,63 +5018,63 @@
         <v>2</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L22" s="5">
+        <v>29</v>
+      </c>
+      <c r="L22" s="6">
         <v>43967</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q22" s="5">
+        <v>32</v>
+      </c>
+      <c r="Q22" s="6">
         <v>43966</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T22" s="5">
+        <v>34</v>
+      </c>
+      <c r="T22" s="6">
         <v>43966</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" ht="27" spans="1:21">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E23" s="3">
         <v>3</v>
@@ -4483,63 +5083,63 @@
         <v>3</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L23" s="5">
+        <v>29</v>
+      </c>
+      <c r="L23" s="6">
         <v>43967</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q23" s="5">
+        <v>32</v>
+      </c>
+      <c r="Q23" s="6">
         <v>43966</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T23" s="5">
+        <v>34</v>
+      </c>
+      <c r="T23" s="6">
         <v>43966</v>
       </c>
       <c r="U23" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" ht="27" spans="1:21">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E24" s="3">
         <v>3</v>
@@ -4548,63 +5148,63 @@
         <v>3</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="5">
+        <v>29</v>
+      </c>
+      <c r="L24" s="6">
         <v>43967</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q24" s="5">
+        <v>32</v>
+      </c>
+      <c r="Q24" s="6">
         <v>43966</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T24" s="5">
+        <v>34</v>
+      </c>
+      <c r="T24" s="6">
         <v>43966</v>
       </c>
       <c r="U24" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" ht="27" spans="1:21">
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E25" s="3">
         <v>3</v>
@@ -4613,63 +5213,63 @@
         <v>3</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L25" s="5">
+        <v>29</v>
+      </c>
+      <c r="L25" s="6">
         <v>43967</v>
       </c>
       <c r="M25" s="3">
         <v>0</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q25" s="5">
+        <v>32</v>
+      </c>
+      <c r="Q25" s="6">
         <v>43966</v>
       </c>
       <c r="R25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T25" s="5">
+        <v>34</v>
+      </c>
+      <c r="T25" s="6">
         <v>43966</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" ht="40.5" spans="1:21">
       <c r="A26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E26" s="3">
         <v>3</v>
@@ -4678,59 +5278,59 @@
         <v>3</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L26" s="5">
+        <v>29</v>
+      </c>
+      <c r="L26" s="6">
         <v>43967</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q26" s="5">
+        <v>32</v>
+      </c>
+      <c r="Q26" s="6">
         <v>43966</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T26" s="5">
+        <v>34</v>
+      </c>
+      <c r="T26" s="6">
         <v>43966</v>
       </c>
       <c r="U26" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" ht="40.5" spans="1:21">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E27" s="3">
         <v>3</v>
@@ -4739,63 +5339,63 @@
         <v>3</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L27" s="5">
+        <v>29</v>
+      </c>
+      <c r="L27" s="6">
         <v>43967</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q27" s="5">
+        <v>32</v>
+      </c>
+      <c r="Q27" s="6">
         <v>43966</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T27" s="5">
+        <v>34</v>
+      </c>
+      <c r="T27" s="6">
         <v>43966</v>
       </c>
       <c r="U27" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" ht="27" spans="1:21">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E28" s="3">
         <v>3</v>
@@ -4804,63 +5404,63 @@
         <v>3</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L28" s="5">
+        <v>29</v>
+      </c>
+      <c r="L28" s="6">
         <v>43967</v>
       </c>
       <c r="M28" s="3">
         <v>0</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P28" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q28" s="5">
+      <c r="Q28" s="6">
         <v>43966</v>
       </c>
       <c r="R28" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T28" s="5">
+        <v>34</v>
+      </c>
+      <c r="T28" s="6">
         <v>43966</v>
       </c>
       <c r="U28" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" ht="27" spans="1:21">
       <c r="A29" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E29" s="3">
         <v>3</v>
@@ -4869,63 +5469,63 @@
         <v>3</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L29" s="5">
+        <v>29</v>
+      </c>
+      <c r="L29" s="6">
         <v>43967</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q29" s="5">
+        <v>32</v>
+      </c>
+      <c r="Q29" s="6">
         <v>43966</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T29" s="5">
+        <v>34</v>
+      </c>
+      <c r="T29" s="6">
         <v>43966</v>
       </c>
       <c r="U29" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" ht="27" spans="1:21">
       <c r="A30" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E30" s="3">
         <v>3</v>
@@ -4934,63 +5534,63 @@
         <v>3</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L30" s="5">
+        <v>29</v>
+      </c>
+      <c r="L30" s="6">
         <v>43967</v>
       </c>
       <c r="M30" s="3">
         <v>0</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q30" s="5">
+        <v>32</v>
+      </c>
+      <c r="Q30" s="6">
         <v>43966</v>
       </c>
       <c r="R30" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T30" s="5">
+        <v>34</v>
+      </c>
+      <c r="T30" s="6">
         <v>43966</v>
       </c>
       <c r="U30" s="4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" ht="27" spans="1:21">
       <c r="A31" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E31" s="3">
         <v>3</v>
@@ -4999,63 +5599,63 @@
         <v>3</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L31" s="5">
+        <v>29</v>
+      </c>
+      <c r="L31" s="6">
         <v>43967</v>
       </c>
       <c r="M31" s="3">
         <v>0</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q31" s="5">
+        <v>32</v>
+      </c>
+      <c r="Q31" s="6">
         <v>43966</v>
       </c>
       <c r="R31" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T31" s="5">
+        <v>34</v>
+      </c>
+      <c r="T31" s="6">
         <v>43966</v>
       </c>
       <c r="U31" s="4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" ht="27" spans="1:21">
       <c r="A32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E32" s="3">
         <v>3</v>
@@ -5064,63 +5664,63 @@
         <v>3</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q32" s="5">
+        <v>32</v>
+      </c>
+      <c r="Q32" s="6">
         <v>43966</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T32" s="5">
+        <v>34</v>
+      </c>
+      <c r="T32" s="6">
         <v>43966</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" ht="27" spans="1:21">
       <c r="A33" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E33" s="3">
         <v>3</v>
@@ -5129,63 +5729,63 @@
         <v>3</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L33" s="5">
+        <v>29</v>
+      </c>
+      <c r="L33" s="6">
         <v>43967</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q33" s="5">
+        <v>32</v>
+      </c>
+      <c r="Q33" s="6">
         <v>43966</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T33" s="5">
+        <v>34</v>
+      </c>
+      <c r="T33" s="6">
         <v>43966</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" ht="27" spans="1:21">
       <c r="A34" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E34" s="3">
         <v>3</v>
@@ -5194,63 +5794,63 @@
         <v>3</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L34" s="5">
+        <v>29</v>
+      </c>
+      <c r="L34" s="6">
         <v>43967</v>
       </c>
       <c r="M34" s="3">
         <v>0</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q34" s="5">
+        <v>32</v>
+      </c>
+      <c r="Q34" s="6">
         <v>43966</v>
       </c>
       <c r="R34" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T34" s="5">
+        <v>34</v>
+      </c>
+      <c r="T34" s="6">
         <v>43966</v>
       </c>
       <c r="U34" s="4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" ht="27" spans="1:21">
       <c r="A35" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E35" s="3">
         <v>3</v>
@@ -5259,63 +5859,63 @@
         <v>3</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L35" s="5">
+        <v>29</v>
+      </c>
+      <c r="L35" s="6">
         <v>43967</v>
       </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q35" s="5">
+        <v>32</v>
+      </c>
+      <c r="Q35" s="6">
         <v>43966</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T35" s="5">
+        <v>34</v>
+      </c>
+      <c r="T35" s="6">
         <v>43966</v>
       </c>
       <c r="U35" s="4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" ht="27" spans="1:21">
       <c r="A36" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E36" s="3">
         <v>3</v>
@@ -5324,63 +5924,63 @@
         <v>3</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L36" s="5">
+        <v>29</v>
+      </c>
+      <c r="L36" s="6">
         <v>43967</v>
       </c>
       <c r="M36" s="3">
         <v>0</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q36" s="5">
+        <v>32</v>
+      </c>
+      <c r="Q36" s="6">
         <v>43966</v>
       </c>
       <c r="R36" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T36" s="5">
+        <v>34</v>
+      </c>
+      <c r="T36" s="6">
         <v>43966</v>
       </c>
       <c r="U36" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" ht="27" spans="1:21">
       <c r="A37" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E37" s="3">
         <v>3</v>
@@ -5389,63 +5989,63 @@
         <v>3</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L37" s="5">
+        <v>29</v>
+      </c>
+      <c r="L37" s="6">
         <v>43969</v>
       </c>
       <c r="M37" s="3">
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q37" s="5">
+        <v>46</v>
+      </c>
+      <c r="Q37" s="6">
         <v>43966</v>
       </c>
       <c r="R37" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T37" s="5">
+        <v>34</v>
+      </c>
+      <c r="T37" s="6">
         <v>43966</v>
       </c>
       <c r="U37" s="4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" ht="27" spans="1:21">
       <c r="A38" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E38" s="3">
         <v>3</v>
@@ -5454,59 +6054,59 @@
         <v>3</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L38" s="5">
+        <v>29</v>
+      </c>
+      <c r="L38" s="6">
         <v>43969</v>
       </c>
       <c r="M38" s="3">
         <v>0</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q38" s="5">
+        <v>46</v>
+      </c>
+      <c r="Q38" s="6">
         <v>43966</v>
       </c>
       <c r="R38" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T38" s="5">
+        <v>34</v>
+      </c>
+      <c r="T38" s="6">
         <v>43966</v>
       </c>
       <c r="U38" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" ht="40.5" spans="1:21">
       <c r="A39" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E39" s="3">
         <v>3</v>
@@ -5515,63 +6115,63 @@
         <v>3</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L39" s="5">
+        <v>29</v>
+      </c>
+      <c r="L39" s="6">
         <v>43969</v>
       </c>
       <c r="M39" s="3">
         <v>0</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q39" s="5">
+        <v>46</v>
+      </c>
+      <c r="Q39" s="6">
         <v>43966</v>
       </c>
       <c r="R39" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T39" s="5">
+        <v>34</v>
+      </c>
+      <c r="T39" s="6">
         <v>43966</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" ht="40.5" spans="1:21">
       <c r="A40" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E40" s="3">
         <v>3</v>
@@ -5580,63 +6180,63 @@
         <v>3</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L40" s="5">
+        <v>29</v>
+      </c>
+      <c r="L40" s="6">
         <v>43969</v>
       </c>
       <c r="M40" s="3">
         <v>0</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q40" s="5">
+        <v>46</v>
+      </c>
+      <c r="Q40" s="6">
         <v>43966</v>
       </c>
       <c r="R40" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T40" s="5">
+        <v>34</v>
+      </c>
+      <c r="T40" s="6">
         <v>43966</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" ht="40.5" spans="1:21">
       <c r="A41" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E41" s="3">
         <v>3</v>
@@ -5645,61 +6245,61 @@
         <v>3</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L41" s="5">
+        <v>29</v>
+      </c>
+      <c r="L41" s="6">
         <v>43969</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O41" s="3"/>
       <c r="P41" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q41" s="5">
+        <v>46</v>
+      </c>
+      <c r="Q41" s="6">
         <v>43966</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T41" s="5">
+        <v>34</v>
+      </c>
+      <c r="T41" s="6">
         <v>43966</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" ht="40.5" spans="1:21">
       <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E42" s="3">
         <v>3</v>
@@ -5708,63 +6308,63 @@
         <v>3</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L42" s="5">
+        <v>29</v>
+      </c>
+      <c r="L42" s="6">
         <v>43969</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q42" s="5">
+        <v>46</v>
+      </c>
+      <c r="Q42" s="6">
         <v>43966</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T42" s="5">
+        <v>34</v>
+      </c>
+      <c r="T42" s="6">
         <v>43966</v>
       </c>
       <c r="U42" s="4" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" ht="40.5" spans="1:21">
       <c r="A43" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E43" s="3">
         <v>3</v>
@@ -5773,63 +6373,63 @@
         <v>3</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L43" s="5">
+        <v>29</v>
+      </c>
+      <c r="L43" s="6">
         <v>43969</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q43" s="5">
+        <v>46</v>
+      </c>
+      <c r="Q43" s="6">
         <v>43966</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T43" s="5">
+        <v>34</v>
+      </c>
+      <c r="T43" s="6">
         <v>43966</v>
       </c>
       <c r="U43" s="4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" ht="27" spans="1:21">
       <c r="A44" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E44" s="3">
         <v>3</v>
@@ -5838,63 +6438,63 @@
         <v>3</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L44" s="5">
+        <v>29</v>
+      </c>
+      <c r="L44" s="6">
         <v>43969</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q44" s="5">
+        <v>46</v>
+      </c>
+      <c r="Q44" s="6">
         <v>43966</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T44" s="5">
+        <v>34</v>
+      </c>
+      <c r="T44" s="6">
         <v>43966</v>
       </c>
       <c r="U44" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" ht="27" spans="1:21">
       <c r="A45" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E45" s="3">
         <v>3</v>
@@ -5903,63 +6503,63 @@
         <v>3</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L45" s="5">
+        <v>29</v>
+      </c>
+      <c r="L45" s="6">
         <v>43969</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q45" s="5">
+        <v>46</v>
+      </c>
+      <c r="Q45" s="6">
         <v>43966</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T45" s="5">
+        <v>34</v>
+      </c>
+      <c r="T45" s="6">
         <v>43966</v>
       </c>
       <c r="U45" s="4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" ht="27" spans="1:21">
       <c r="A46" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E46" s="3">
         <v>3</v>
@@ -5968,63 +6568,63 @@
         <v>3</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L46" s="5">
+        <v>29</v>
+      </c>
+      <c r="L46" s="6">
         <v>43969</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q46" s="5">
+        <v>46</v>
+      </c>
+      <c r="Q46" s="6">
         <v>43966</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T46" s="5">
+        <v>34</v>
+      </c>
+      <c r="T46" s="6">
         <v>43966</v>
       </c>
       <c r="U46" s="4" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" ht="40.5" spans="1:21">
       <c r="A47" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E47" s="3">
         <v>3</v>
@@ -6033,63 +6633,63 @@
         <v>3</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L47" s="5">
+        <v>29</v>
+      </c>
+      <c r="L47" s="6">
         <v>43969</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q47" s="5">
+        <v>46</v>
+      </c>
+      <c r="Q47" s="6">
         <v>43966</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T47" s="5">
+        <v>34</v>
+      </c>
+      <c r="T47" s="6">
         <v>43966</v>
       </c>
       <c r="U47" s="4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" ht="40.5" spans="1:21">
       <c r="A48" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E48" s="3">
         <v>3</v>
@@ -6098,63 +6698,63 @@
         <v>3</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L48" s="5">
+        <v>29</v>
+      </c>
+      <c r="L48" s="6">
         <v>43969</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q48" s="5">
+        <v>46</v>
+      </c>
+      <c r="Q48" s="6">
         <v>43966</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T48" s="5">
+        <v>34</v>
+      </c>
+      <c r="T48" s="6">
         <v>43966</v>
       </c>
       <c r="U48" s="4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" ht="27" spans="1:21">
       <c r="A49" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E49" s="3">
         <v>3</v>
@@ -6163,63 +6763,63 @@
         <v>3</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L49" s="5">
+        <v>29</v>
+      </c>
+      <c r="L49" s="6">
         <v>43969</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q49" s="5">
+        <v>46</v>
+      </c>
+      <c r="Q49" s="6">
         <v>43966</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T49" s="5">
+        <v>34</v>
+      </c>
+      <c r="T49" s="6">
         <v>43966</v>
       </c>
       <c r="U49" s="4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" ht="27" spans="1:21">
       <c r="A50" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E50" s="3">
         <v>3</v>
@@ -6228,63 +6828,63 @@
         <v>3</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L50" s="5">
+        <v>29</v>
+      </c>
+      <c r="L50" s="6">
         <v>43969</v>
       </c>
       <c r="M50" s="3">
         <v>0</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q50" s="5">
+        <v>46</v>
+      </c>
+      <c r="Q50" s="6">
         <v>43966</v>
       </c>
       <c r="R50" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T50" s="5">
+        <v>34</v>
+      </c>
+      <c r="T50" s="6">
         <v>43966</v>
       </c>
       <c r="U50" s="4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" ht="27" spans="1:21">
       <c r="A51" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>276</v>
+      <c r="D51" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="E51" s="3">
         <v>3</v>
@@ -6293,63 +6893,63 @@
         <v>3</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L51" s="5">
+        <v>29</v>
+      </c>
+      <c r="L51" s="6">
         <v>43966</v>
       </c>
       <c r="M51" s="3">
         <v>0</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q51" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q51" s="6">
         <v>43966</v>
       </c>
       <c r="R51" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T51" s="5">
+        <v>34</v>
+      </c>
+      <c r="T51" s="6">
         <v>43966</v>
       </c>
       <c r="U51" s="4" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" ht="27" spans="1:21">
       <c r="A52" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="6" t="s">
-        <v>277</v>
+      <c r="D52" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="E52" s="3">
         <v>3</v>
@@ -6358,36 +6958,36 @@
         <v>3</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L52" s="5">
+        <v>29</v>
+      </c>
+      <c r="L52" s="6">
         <v>43966</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q52" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q52" s="6">
         <v>43966</v>
       </c>
       <c r="R52" s="3" t="s">
@@ -6395,24 +6995,24 @@
       </c>
       <c r="S52" s="3"/>
       <c r="T52" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U52" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" ht="27" spans="1:21">
       <c r="A53" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>278</v>
+      <c r="D53" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="E53" s="3">
         <v>3</v>
@@ -6421,59 +7021,59 @@
         <v>3</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M53" s="3">
         <v>0</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q53" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q53" s="6">
         <v>43966</v>
       </c>
       <c r="R53" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T53" s="5">
+        <v>34</v>
+      </c>
+      <c r="T53" s="6">
         <v>43966</v>
       </c>
       <c r="U53" s="4" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" ht="27" spans="1:21">
       <c r="A54" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>279</v>
+      <c r="D54" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="E54" s="3">
         <v>3</v>
@@ -6482,59 +7082,59 @@
         <v>3</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q54" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q54" s="6">
         <v>43966</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T54" s="5">
+        <v>34</v>
+      </c>
+      <c r="T54" s="6">
         <v>43966</v>
       </c>
       <c r="U54" s="4" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" ht="27" spans="1:21">
       <c r="A55" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E55" s="3">
         <v>3</v>
@@ -6543,61 +7143,61 @@
         <v>3</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M55" s="3">
         <v>0</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O55" s="3"/>
       <c r="P55" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q55" s="5">
+        <v>193</v>
+      </c>
+      <c r="Q55" s="6">
         <v>43966</v>
       </c>
       <c r="R55" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T55" s="5">
+        <v>34</v>
+      </c>
+      <c r="T55" s="6">
         <v>43966</v>
       </c>
       <c r="U55" s="4" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" ht="40.5" spans="1:21">
       <c r="A56" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E56" s="3">
         <v>3</v>
@@ -6606,61 +7206,61 @@
         <v>3</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M56" s="3">
         <v>0</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O56" s="3"/>
       <c r="P56" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q56" s="5">
+        <v>193</v>
+      </c>
+      <c r="Q56" s="6">
         <v>43966</v>
       </c>
       <c r="R56" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T56" s="5">
+        <v>34</v>
+      </c>
+      <c r="T56" s="6">
         <v>43966</v>
       </c>
       <c r="U56" s="4" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" ht="40.5" spans="1:21">
       <c r="A57" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="E57" s="3">
         <v>3</v>
@@ -6669,61 +7269,61 @@
         <v>3</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L57" s="5">
+        <v>29</v>
+      </c>
+      <c r="L57" s="6">
         <v>43966</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O57" s="3"/>
       <c r="P57" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q57" s="5">
+        <v>193</v>
+      </c>
+      <c r="Q57" s="6">
         <v>43966</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T57" s="5">
+        <v>34</v>
+      </c>
+      <c r="T57" s="6">
         <v>43966</v>
       </c>
       <c r="U57" s="4" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" ht="27" spans="1:21">
       <c r="A58" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="E58" s="3">
         <v>3</v>
@@ -6732,61 +7332,61 @@
         <v>3</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L58" s="5">
+        <v>29</v>
+      </c>
+      <c r="L58" s="6">
         <v>43966</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O58" s="3"/>
       <c r="P58" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q58" s="5">
+        <v>193</v>
+      </c>
+      <c r="Q58" s="6">
         <v>43966</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T58" s="5">
+        <v>34</v>
+      </c>
+      <c r="T58" s="6">
         <v>43966</v>
       </c>
       <c r="U58" s="4" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" ht="27" spans="1:21">
       <c r="A59" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E59" s="3">
         <v>3</v>
@@ -6795,61 +7395,61 @@
         <v>3</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L59" s="5">
+        <v>29</v>
+      </c>
+      <c r="L59" s="6">
         <v>43966</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O59" s="3"/>
       <c r="P59" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q59" s="5">
+        <v>193</v>
+      </c>
+      <c r="Q59" s="6">
         <v>43966</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T59" s="5">
+        <v>34</v>
+      </c>
+      <c r="T59" s="6">
         <v>43966</v>
       </c>
       <c r="U59" s="4" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" ht="27" spans="1:21">
       <c r="A60" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E60" s="3">
         <v>3</v>
@@ -6858,61 +7458,61 @@
         <v>3</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L60" s="5">
+        <v>29</v>
+      </c>
+      <c r="L60" s="6">
         <v>43966</v>
       </c>
       <c r="M60" s="3">
         <v>0</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O60" s="3"/>
       <c r="P60" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q60" s="5">
+        <v>193</v>
+      </c>
+      <c r="Q60" s="6">
         <v>43966</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T60" s="5">
+        <v>34</v>
+      </c>
+      <c r="T60" s="6">
         <v>43966</v>
       </c>
       <c r="U60" s="4" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" ht="27" spans="1:21">
       <c r="A61" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="E61" s="3">
         <v>3</v>
@@ -6921,61 +7521,61 @@
         <v>3</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L61" s="5">
+        <v>29</v>
+      </c>
+      <c r="L61" s="6">
         <v>43966</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O61" s="3"/>
       <c r="P61" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q61" s="5">
+        <v>193</v>
+      </c>
+      <c r="Q61" s="6">
         <v>43966</v>
       </c>
       <c r="R61" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T61" s="5">
+        <v>34</v>
+      </c>
+      <c r="T61" s="6">
         <v>43966</v>
       </c>
       <c r="U61" s="4" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" ht="27" spans="1:21">
       <c r="A62" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E62" s="3">
         <v>3</v>
@@ -6984,61 +7584,61 @@
         <v>3</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L62" s="5">
+        <v>29</v>
+      </c>
+      <c r="L62" s="6">
         <v>43966</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O62" s="3"/>
       <c r="P62" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q62" s="5">
+        <v>193</v>
+      </c>
+      <c r="Q62" s="6">
         <v>43966</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T62" s="5">
+        <v>34</v>
+      </c>
+      <c r="T62" s="6">
         <v>43966</v>
       </c>
       <c r="U62" s="4" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" ht="40.5" spans="1:21">
       <c r="A63" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="E63" s="3">
         <v>3</v>
@@ -7047,61 +7647,61 @@
         <v>3</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L63" s="5">
+        <v>29</v>
+      </c>
+      <c r="L63" s="6">
         <v>43966</v>
       </c>
       <c r="M63" s="3">
         <v>0</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O63" s="3"/>
       <c r="P63" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q63" s="5">
+        <v>193</v>
+      </c>
+      <c r="Q63" s="6">
         <v>43966</v>
       </c>
       <c r="R63" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S63" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T63" s="5">
+        <v>34</v>
+      </c>
+      <c r="T63" s="6">
         <v>43966</v>
       </c>
       <c r="U63" s="4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="64" ht="54" spans="1:21">
       <c r="A64" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="E64" s="3">
         <v>3</v>
@@ -7110,61 +7710,61 @@
         <v>3</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L64" s="5">
+        <v>29</v>
+      </c>
+      <c r="L64" s="6">
         <v>43966</v>
       </c>
       <c r="M64" s="3">
         <v>0</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O64" s="3"/>
       <c r="P64" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q64" s="5">
+        <v>193</v>
+      </c>
+      <c r="Q64" s="6">
         <v>43966</v>
       </c>
       <c r="R64" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T64" s="5">
+        <v>34</v>
+      </c>
+      <c r="T64" s="6">
         <v>43966</v>
       </c>
       <c r="U64" s="4" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="65" ht="40.5" spans="1:21">
       <c r="A65" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="E65" s="3">
         <v>3</v>
@@ -7173,61 +7773,61 @@
         <v>3</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L65" s="5">
+        <v>29</v>
+      </c>
+      <c r="L65" s="6">
         <v>43966</v>
       </c>
       <c r="M65" s="3">
         <v>0</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O65" s="3"/>
       <c r="P65" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q65" s="5">
+        <v>193</v>
+      </c>
+      <c r="Q65" s="6">
         <v>43966</v>
       </c>
       <c r="R65" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T65" s="5">
+        <v>34</v>
+      </c>
+      <c r="T65" s="6">
         <v>43966</v>
       </c>
       <c r="U65" s="4" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" ht="54" spans="1:21">
       <c r="A66" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="E66" s="3">
         <v>3</v>
@@ -7236,61 +7836,61 @@
         <v>3</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L66" s="5">
+        <v>29</v>
+      </c>
+      <c r="L66" s="6">
         <v>43966</v>
       </c>
       <c r="M66" s="3">
         <v>0</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O66" s="3"/>
       <c r="P66" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q66" s="5">
+        <v>193</v>
+      </c>
+      <c r="Q66" s="6">
         <v>43966</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T66" s="5">
+        <v>34</v>
+      </c>
+      <c r="T66" s="6">
         <v>43966</v>
       </c>
       <c r="U66" s="4" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="67" ht="54" spans="1:21">
       <c r="A67" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="E67" s="3">
         <v>3</v>
@@ -7299,61 +7899,61 @@
         <v>3</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L67" s="5">
+        <v>29</v>
+      </c>
+      <c r="L67" s="6">
         <v>43966</v>
       </c>
       <c r="M67" s="3">
         <v>0</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O67" s="3"/>
       <c r="P67" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q67" s="5">
+        <v>193</v>
+      </c>
+      <c r="Q67" s="6">
         <v>43966</v>
       </c>
       <c r="R67" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T67" s="5">
+        <v>34</v>
+      </c>
+      <c r="T67" s="6">
         <v>43966</v>
       </c>
       <c r="U67" s="4" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" ht="40.5" spans="1:21">
       <c r="A68" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="E68" s="3">
         <v>3</v>
@@ -7362,61 +7962,61 @@
         <v>3</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L68" s="5">
+        <v>29</v>
+      </c>
+      <c r="L68" s="6">
         <v>43966</v>
       </c>
       <c r="M68" s="3">
         <v>0</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O68" s="3"/>
       <c r="P68" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q68" s="5">
+        <v>193</v>
+      </c>
+      <c r="Q68" s="6">
         <v>43966</v>
       </c>
       <c r="R68" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T68" s="5">
+        <v>34</v>
+      </c>
+      <c r="T68" s="6">
         <v>43966</v>
       </c>
       <c r="U68" s="4" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" ht="27" spans="1:21">
       <c r="A69" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="E69" s="3">
         <v>3</v>
@@ -7425,61 +8025,61 @@
         <v>3</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L69" s="5">
+        <v>29</v>
+      </c>
+      <c r="L69" s="6">
         <v>43966</v>
       </c>
       <c r="M69" s="3">
         <v>0</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O69" s="3"/>
       <c r="P69" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q69" s="5">
+        <v>193</v>
+      </c>
+      <c r="Q69" s="6">
         <v>43966</v>
       </c>
       <c r="R69" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T69" s="5">
+        <v>34</v>
+      </c>
+      <c r="T69" s="6">
         <v>43966</v>
       </c>
       <c r="U69" s="4" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" ht="27" spans="1:21">
       <c r="A70" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E70" s="3">
         <v>3</v>
@@ -7488,61 +8088,61 @@
         <v>3</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L70" s="5">
+        <v>29</v>
+      </c>
+      <c r="L70" s="6">
         <v>43966</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O70" s="3"/>
       <c r="P70" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q70" s="5">
+        <v>193</v>
+      </c>
+      <c r="Q70" s="6">
         <v>43966</v>
       </c>
       <c r="R70" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T70" s="5">
+        <v>34</v>
+      </c>
+      <c r="T70" s="6">
         <v>43966</v>
       </c>
       <c r="U70" s="4" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" ht="40.5" spans="1:21">
       <c r="A71" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E71" s="3">
         <v>3</v>
@@ -7551,61 +8151,61 @@
         <v>3</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L71" s="5">
+        <v>29</v>
+      </c>
+      <c r="L71" s="6">
         <v>43966</v>
       </c>
       <c r="M71" s="3">
         <v>0</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O71" s="3"/>
       <c r="P71" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q71" s="5">
+        <v>193</v>
+      </c>
+      <c r="Q71" s="6">
         <v>43966</v>
       </c>
       <c r="R71" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T71" s="5">
+        <v>34</v>
+      </c>
+      <c r="T71" s="6">
         <v>43966</v>
       </c>
       <c r="U71" s="4" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" ht="27" spans="1:21">
       <c r="A72" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E72" s="3">
         <v>3</v>
@@ -7614,61 +8214,61 @@
         <v>3</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L72" s="5">
+        <v>29</v>
+      </c>
+      <c r="L72" s="6">
         <v>43966</v>
       </c>
       <c r="M72" s="3">
         <v>0</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O72" s="3"/>
       <c r="P72" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q72" s="5">
+        <v>193</v>
+      </c>
+      <c r="Q72" s="6">
         <v>43966</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T72" s="5">
+        <v>34</v>
+      </c>
+      <c r="T72" s="6">
         <v>43966</v>
       </c>
       <c r="U72" s="4" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" ht="27" spans="1:21">
       <c r="A73" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E73" s="3">
         <v>3</v>
@@ -7677,61 +8277,61 @@
         <v>3</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L73" s="5">
+        <v>29</v>
+      </c>
+      <c r="L73" s="6">
         <v>43966</v>
       </c>
       <c r="M73" s="3">
         <v>0</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O73" s="3"/>
       <c r="P73" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q73" s="5">
+        <v>193</v>
+      </c>
+      <c r="Q73" s="6">
         <v>43966</v>
       </c>
       <c r="R73" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T73" s="5">
+        <v>34</v>
+      </c>
+      <c r="T73" s="6">
         <v>43966</v>
       </c>
       <c r="U73" s="4" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" ht="40.5" spans="1:21">
       <c r="A74" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="E74" s="3">
         <v>3</v>
@@ -7740,61 +8340,61 @@
         <v>3</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L74" s="5">
+        <v>29</v>
+      </c>
+      <c r="L74" s="6">
         <v>43966</v>
       </c>
       <c r="M74" s="3">
         <v>0</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O74" s="3"/>
       <c r="P74" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q74" s="5">
+        <v>193</v>
+      </c>
+      <c r="Q74" s="6">
         <v>43966</v>
       </c>
       <c r="R74" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T74" s="5">
+        <v>34</v>
+      </c>
+      <c r="T74" s="6">
         <v>43966</v>
       </c>
       <c r="U74" s="4" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" ht="40.5" spans="1:21">
       <c r="A75" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="E75" s="3">
         <v>3</v>
@@ -7803,61 +8403,61 @@
         <v>3</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L75" s="5">
+        <v>29</v>
+      </c>
+      <c r="L75" s="6">
         <v>43966</v>
       </c>
       <c r="M75" s="3">
         <v>0</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O75" s="3"/>
       <c r="P75" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q75" s="5">
+        <v>193</v>
+      </c>
+      <c r="Q75" s="6">
         <v>43966</v>
       </c>
       <c r="R75" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T75" s="5">
+        <v>34</v>
+      </c>
+      <c r="T75" s="6">
         <v>43966</v>
       </c>
       <c r="U75" s="4" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" ht="40.5" spans="1:21">
       <c r="A76" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E76" s="3">
         <v>3</v>
@@ -7866,61 +8466,61 @@
         <v>3</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L76" s="5">
+        <v>29</v>
+      </c>
+      <c r="L76" s="6">
         <v>43966</v>
       </c>
       <c r="M76" s="3">
         <v>0</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O76" s="3"/>
       <c r="P76" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q76" s="5">
+        <v>193</v>
+      </c>
+      <c r="Q76" s="6">
         <v>43966</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T76" s="5">
+        <v>34</v>
+      </c>
+      <c r="T76" s="6">
         <v>43966</v>
       </c>
       <c r="U76" s="4" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" ht="27" spans="1:21">
       <c r="A77" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E77" s="3">
         <v>3</v>
@@ -7929,61 +8529,61 @@
         <v>3</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L77" s="5">
+        <v>29</v>
+      </c>
+      <c r="L77" s="6">
         <v>43966</v>
       </c>
       <c r="M77" s="3">
         <v>0</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O77" s="3"/>
       <c r="P77" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q77" s="5">
+        <v>193</v>
+      </c>
+      <c r="Q77" s="6">
         <v>43966</v>
       </c>
       <c r="R77" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T77" s="5">
+        <v>34</v>
+      </c>
+      <c r="T77" s="6">
         <v>43966</v>
       </c>
       <c r="U77" s="4" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" ht="27" spans="1:21">
       <c r="A78" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="E78" s="3">
         <v>3</v>
@@ -7992,61 +8592,61 @@
         <v>3</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L78" s="5">
+        <v>29</v>
+      </c>
+      <c r="L78" s="6">
         <v>43966</v>
       </c>
       <c r="M78" s="3">
         <v>0</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O78" s="3"/>
       <c r="P78" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q78" s="5">
+        <v>193</v>
+      </c>
+      <c r="Q78" s="6">
         <v>43966</v>
       </c>
       <c r="R78" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T78" s="5">
+        <v>34</v>
+      </c>
+      <c r="T78" s="6">
         <v>43966</v>
       </c>
       <c r="U78" s="4" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" ht="27" spans="1:21">
       <c r="A79" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="E79" s="3">
         <v>3</v>
@@ -8055,61 +8655,61 @@
         <v>3</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L79" s="5">
+        <v>29</v>
+      </c>
+      <c r="L79" s="6">
         <v>43966</v>
       </c>
       <c r="M79" s="3">
         <v>0</v>
       </c>
       <c r="N79" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O79" s="3"/>
       <c r="P79" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q79" s="5">
+        <v>193</v>
+      </c>
+      <c r="Q79" s="6">
         <v>43966</v>
       </c>
       <c r="R79" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T79" s="5">
+        <v>34</v>
+      </c>
+      <c r="T79" s="6">
         <v>43966</v>
       </c>
       <c r="U79" s="4" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" ht="27" spans="1:21">
       <c r="A80" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="E80" s="3">
         <v>3</v>
@@ -8118,61 +8718,61 @@
         <v>3</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L80" s="5">
+        <v>29</v>
+      </c>
+      <c r="L80" s="6">
         <v>43966</v>
       </c>
       <c r="M80" s="3">
         <v>0</v>
       </c>
       <c r="N80" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O80" s="3"/>
       <c r="P80" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q80" s="5">
+        <v>193</v>
+      </c>
+      <c r="Q80" s="6">
         <v>43966</v>
       </c>
       <c r="R80" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T80" s="5">
+        <v>34</v>
+      </c>
+      <c r="T80" s="6">
         <v>43966</v>
       </c>
       <c r="U80" s="4" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" ht="27" spans="1:21">
       <c r="A81" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="E81" s="3">
         <v>3</v>
@@ -8181,61 +8781,61 @@
         <v>3</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L81" s="5">
+        <v>29</v>
+      </c>
+      <c r="L81" s="6">
         <v>43966</v>
       </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
       <c r="N81" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O81" s="3"/>
       <c r="P81" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q81" s="5">
+        <v>193</v>
+      </c>
+      <c r="Q81" s="6">
         <v>43966</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T81" s="5">
+        <v>34</v>
+      </c>
+      <c r="T81" s="6">
         <v>43966</v>
       </c>
       <c r="U81" s="4" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" ht="27" spans="1:21">
       <c r="A82" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="E82" s="3">
         <v>3</v>
@@ -8244,61 +8844,61 @@
         <v>3</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L82" s="5">
+        <v>29</v>
+      </c>
+      <c r="L82" s="6">
         <v>43966</v>
       </c>
       <c r="M82" s="3">
         <v>0</v>
       </c>
       <c r="N82" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O82" s="3"/>
       <c r="P82" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q82" s="5">
+        <v>193</v>
+      </c>
+      <c r="Q82" s="6">
         <v>43966</v>
       </c>
       <c r="R82" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T82" s="5">
+        <v>34</v>
+      </c>
+      <c r="T82" s="6">
         <v>43966</v>
       </c>
       <c r="U82" s="4" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" ht="27" spans="1:21">
       <c r="A83" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="E83" s="3">
         <v>3</v>
@@ -8307,61 +8907,61 @@
         <v>3</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L83" s="5">
+        <v>29</v>
+      </c>
+      <c r="L83" s="6">
         <v>43966</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O83" s="3"/>
       <c r="P83" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q83" s="5">
+        <v>193</v>
+      </c>
+      <c r="Q83" s="6">
         <v>43966</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S83" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T83" s="5">
+        <v>34</v>
+      </c>
+      <c r="T83" s="6">
         <v>43966</v>
       </c>
       <c r="U83" s="4" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" ht="27" spans="1:21">
       <c r="A84" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="E84" s="3">
         <v>3</v>
@@ -8370,61 +8970,61 @@
         <v>3</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L84" s="5">
+        <v>29</v>
+      </c>
+      <c r="L84" s="6">
         <v>43966</v>
       </c>
       <c r="M84" s="3">
         <v>0</v>
       </c>
       <c r="N84" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O84" s="3"/>
       <c r="P84" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q84" s="5">
+        <v>193</v>
+      </c>
+      <c r="Q84" s="6">
         <v>43966</v>
       </c>
       <c r="R84" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S84" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T84" s="5">
+        <v>34</v>
+      </c>
+      <c r="T84" s="6">
         <v>43966</v>
       </c>
       <c r="U84" s="4" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" ht="27" spans="1:21">
       <c r="A85" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="E85" s="3">
         <v>3</v>
@@ -8433,55 +9033,55 @@
         <v>3</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L85" s="5">
+        <v>29</v>
+      </c>
+      <c r="L85" s="6">
         <v>43966</v>
       </c>
       <c r="M85" s="3">
         <v>0</v>
       </c>
       <c r="N85" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O85" s="3"/>
       <c r="P85" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q85" s="5">
+        <v>193</v>
+      </c>
+      <c r="Q85" s="6">
         <v>43966</v>
       </c>
       <c r="R85" s="3" t="s">
         <v>23</v>
       </c>
       <c r="S85" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T85" s="5">
+        <v>34</v>
+      </c>
+      <c r="T85" s="6">
         <v>43966</v>
       </c>
       <c r="U85" s="4" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U85">
+  <sortState ref="A2:U85">
     <sortCondition ref="B2"/>
   </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/02 系统测试/05 项目成果输出/缺陷报告.xlsx
+++ b/02 系统测试/05 项目成果输出/缺陷报告.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\github_base\woniuboss2.5\02 系统测试\05 项目成果输出\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sc281\Desktop\woniuboss2.5_git\woniuboss2.5_yang\02 系统测试\05 项目成果输出\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FF0A36-63EE-4B00-8A17-F7BB817D34B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CC268A-B58E-4250-B9F9-D19E3247A864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5369,7 +5369,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>21</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>21</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>21</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>21</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>21</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>21</v>
       </c>
